--- a/spreadsheet/avd_checklist.en.xlsx
+++ b/spreadsheet/avd_checklist.en.xlsx
@@ -3500,7 +3500,7 @@
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evaluate Azure Shared Image Gallery.</t>
+          <t>Evaluate Azure Compute Gallery.</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Shared Image Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
+          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Compute Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">

--- a/spreadsheet/avd_checklist.en.xlsx
+++ b/spreadsheet/avd_checklist.en.xlsx
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -6621,850 +6621,2418 @@
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="n"/>
       <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -9522,7 +11090,25 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/avd_checklist.en.xlsx
+++ b/spreadsheet/avd_checklist.en.xlsx
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determine in which Azure region/s AVD Host Pools will be deployed</t>
+          <t>Determine the expected High Availability SLA for applications/desktops published through AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD is a non-regional service, Host Pools can be created in any region, automatic redirection from closest front-end will happen automatically. </t>
+          <t xml:space="preserve">AVD control plan does not offer a financially backed service level agreement. We strive to attain at least 99.9% availability for the Windows Virtual Desktop service URLs. The availability of the session host virtual machines in your subscription is covered by the Virtual Machines SLA. Dependent resources/services and infrastructure availability must be also considered to properly satisfy global high-availability requirements. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determine if hybrid connectivity is required to connect to on-premises environment</t>
+          <t>Assess Geo Disaster Recovery region for AVD Host Pools</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If required to connect to on-premises environment, assess the current connectivity option or plan for the required connectivity. </t>
+          <t>Active-Active' model can be achieved with multiple host pools in different regions. A single Host Pool with VMs from different regions is not recommended.If multiple pools for same users will be used, the problem of how to synchronize/replicate user profiles must be solved. FSLogix Cloud Cache could be used, but need to be carefully reviewed and planned, or customers can decide to do not synchronize/replicate at all. 'Active-Passive' can be achieved using Azure Site Recovery (ASR) or on-demand Pool deployment with automated mechanism.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Did you evaluate latency between users location and Azure AVD infrastructure?</t>
+          <t>Separate critical applications in different AVD Host Pools</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Run the 'Windows Virtual Desktop Experience Estimator' tool to select the best Azure region to deploy Host Pools. Beyond 150ms latency, user experience may be not optimal. </t>
+          <t>Before approaching Windows Virtual Desktop BCDR planning and design, it is important to initially consider which applications are consumed through AVD are critical. You may want to separate them from non-critical apps and use a separate Host Pool with a different disaster recovery approach and capabilities.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determine metadata location for AVD service</t>
+          <t>Plan the best resiliency option for AVD Host Pool deployment</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD store metadata only to run the service in specific geographic locations, determine what is available today and if suitable based on customer requirements. </t>
+          <t xml:space="preserve">? Did you select the proper resiliency level for your Host Pool VMs (Availability Set vs. Availability Zones)?? Are you aware of implications on HA SLA and scalability limits that come with AS or AZ? ? You can currently deploy 399 VMs per Windows Virtual Desktop ARM template deployment without Availability Sets, or 200 VMs per Availability Set.? You can increase the number of VMs per deployment by switching off Availability Sets in either the ARM template or the Azure portal host pool enrollment.Deploying AZ is now possible, one AZ at time at the moment, need to manually create a fraction of VMs in each desired AZ. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Check Azure quotas and availability for specific VM sizes in the selected regions</t>
+          <t>Assess the requirement to backup AVD Session Hosts</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check for specific VM SKUs, especially if you need GPU or high-specs SKUs, and eventually Azure NetApp Files availability if used. </t>
+          <t xml:space="preserve">Azure Backup can be used also to protect Host Pool VMs, this practice is supported, even if Host Pool VMs should be stateless. This option could be considered for Personal Host Pools. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Dependencies</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Check for Availability Zone (AZ) availability in the selected region</t>
+          <t>Plan for Golden Image cross-region availability</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>See BCDR section for more details.</t>
+          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Compute Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Dependencies</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Assess how many users will connect to AVD and from which regions</t>
+          <t xml:space="preserve">Assess Infrastructure &amp; Application dependencies </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For proper planning and and deployment, it is important to asses the maximum number of users and average concurrent sessions. </t>
+          <t>If users of the AVD infrastructure need on-premises resource access, high availability of network infrastructure required to connect is also critical and should be considered. Resiliency of authentication infrastructure needs to be assessed and evaluated. BCDR aspects for dependent applications and other resources need to be considered to ensure availability in the secondary DR location.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determine if all users will have the same set of applications and/or different Host Pool configurations and/or OS images</t>
+          <t>Assess which data need to be protected inside the Profile and Office Containers</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools maybe required to support different set of users, it is recommended to estimate how many will be necessary. </t>
+          <t xml:space="preserve">Not all data inside FSLogix user profiles may deserve protection from disaster. Additionally, if external storage is used, for example OneDrive or File Servers/Shares, what is remaining in the FSLogix profile is minimal and could be lost in some extreme circumstances. In other cases, data inside the profile can be rebuilt from other storages (for example Outlook Inbox in cached mode). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Assess external dependencies for each Host Pool</t>
+          <t>Build a backup protection strategy for Profile and Office Containers</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>The dependencies on resources external to the AVD pool should be assessed and reviewed, for example Active Directory, external file shares or other storage, on-premises services and resources, network infrastructure components like VPN and or Express Route, external services and 3rd-party components. For all these resources, latency from the AVD Host Pool needs to be evaluated and connectivity considered. Additionally, BCDR considerations need to be applied to these dependencies as well.</t>
+          <t>Preventing data loss for critical user data is important, first step is to assess which data need to be saved and protected. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary. Appropriate mechanism must be considered to provide protection for critical user data. Azure Backup service can be used to protect Profile and Office Containers data when stored on Azure Files Standard and Premium tiers. Azure NetApp Files Snapshots and Policies can be used for Azure NetApp Files (all tiers).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Review client OS used and AVD client type</t>
+          <t>Assess Profile Container storage replication requirements and resiliency for BCDR purpose</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Review limitations of each client and compare multiple options when possible.</t>
+          <t>In AVD, multiple replication mechanisms and strategies can be used for user data residing in FSLogix containers:? Profile Pattern #1: Native Azure storage replication mechanisms, for example Azure Files Standard GRS replication, Azure NetApp Files Cross Region Replication, or Azure Files Sync for VM-based file servers? Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files is recommended.? LRS with local only resiliency can be used if no zone/region protection is required.? NOTE: Azure Files Share Standard is LRS/ZRS/GRS, but with 100TB large support enabled only LRS/ZRS are supported. ? Profile Pattern #2: FSLogix Cloud Cache is built in automatic mechanism to replicate containers between different (up to 4) storage accounts. Cloud Cache should be used only when:? User Profile or Office containers data availability required high-availability SLA is critical and need to be resilient to region failure.? Selected storage option is not able to satisfy BCDR requirements. For example, with Azure File Share Premium tier, or Azure File Share Standard with Large File Support enabled, GRS is not available.? When replication between disparate storage is required.? Profile Pattern #3: Only set up geo disaster recovery for application data and not for user data/profile containers: store important application data in separate storages, like OneDrive or other external storage with its own built-in DR mechanism.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Check licensing requirements</t>
+          <t>Review Azure NetApp Files DR strategy</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Customers who are properly licensed to run Windows Virtual Desktop workloads are eligible to apply a Windows license to their session host virtual machines and run them without paying for another license.</t>
+          <t>Geo Disaster Recovery: Azure NetApp Files is essentially is LRS (locally replicated storage), then you need to architect something more if you want cross-region replication. The recommendation for cross-region at the moment is NetApp Cloud Sync, replicating to another Azure region (and NetApp Volume). Backup: Backups are handled by snapshots, but are not automatic, need to scheduled using policies. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. There is a maximum limit of snapshots (255) per volume as documented here: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Run a PoC to test end-to-end user experience to verify impact caused by network latency</t>
+          <t>Review Azure Files DR strategy</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depending on the user locations, and AVD region deployment, users may have a non-optimal experience, hence is important to test as soon as possible in a small PoC environment. </t>
+          <t>Geo Disaster Recovery: GRS for Azure Files is only available with standard SKU and no large share support, then not suitable in most customer scenarios. If geo-replication is required, when using Azure File Share Premium, replication with FSLogix Cloud Cache should be evaluated, or 'in-region' Availability Zone (AZ) only resiliency should be considered. Backup: Azure Backup fully supports Azure File Share all SKUs, and is the recommended solution to protect Profile Containers. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine if users will access AVD using full desktops and/or remote applications </t>
+          <t>Determine how applications will be deployed in AVD Host Pools</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine if users will be offered full desktops and/or Remote Application Groups. </t>
+          <t>Applications can be preinstalled in the golden image/s, can be attached using MSIX &amp; AppAttach feature or distributing to hosts after pool deployment using traditional SW distribution methods.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">All users will have the same RDP settings? </t>
+          <t>Estimate the number of golden images that will be required</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>RDP settings can currently only be configured at the host pool level, not per user / group.</t>
+          <t>Will they use fslogix application masking which would lend itself to a single image, or multi images with different applications baked in: what is necessitating more than one image to be used?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evaluate RDP ShortPath for clients connecting from managed internal networks</t>
+          <t>Determine which OS image/s you will use for Host Pool deployment</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RDP Shortpath for managed networks is a feature of Azure Virtual Desktop that establishes a direct UDP-based transport between Remote Desktop Client and Session host. The removal of extra relay reduces the round-trip time, which improves user experience with latency-sensitive applications and input methods. To support RDP Shortpath, the Azure Virtual Desktop client needs a direct line of sight to the session host, and must be running either Windows 10 or Windows 7 and have the Windows Desktop client installed.</t>
+          <t>Determine which Guest OS will be used to deploy each Host Pool: Windows 10 vs. Windows Server, Marketplace vs. Custom images</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determine the Host Pool type to use</t>
+          <t>If a custom image will be used, determine if there is an automated build process?</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Shared/Pooled or Dedicated/Personal</t>
+          <t xml:space="preserve">If nothing exists, consider using Azure Image Builder to automate the build process. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>For Personal Host Pool type, decide on the assignment type</t>
+          <t>If a custom image will be used, is there a plan to organise and manage the lifecycle of your images?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirm that the difference between automatic and direct assignment is well understood and the selected option is appropriate for the scenario in question.</t>
+          <t>Evaluate Azure Compute Gallery.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>For Pooled Host Pool type, decide on the load balancing method</t>
+          <t>If custom image will be used, check recommended best practices for AVD on how to build master image</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check which one to use and available options, be aware that if autoscaling will be used, it sets it to breadth-first. </t>
+          <t xml:space="preserve">There are some known best practices and recommendations for the golden image customization, be sure to check the referenced article. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimate the number of different Host Pools to deploy </t>
+          <t>Evaluate the usage of Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Based on your selection criterias, how many Host Pools you would need? You should consider to have multiple ones if:? Multiple OS images? Multiple regions? Different HW required? Different Host Pool type (shared vs. personal)? Different user requirements and SLA (Top users, Execs, Office Worker vs. Developers, etc.)? Different RDP settings (applied at Host Pool level), see https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Required number of VMs in the host pool exceeding maximum capabilities</t>
+          <t xml:space="preserve">This tool-set has been created to automatically apply setting referenced in white paper 'Optimizing Windows 10, version 2004 for a Virtual Desktop Infrastructure (VDI) role': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Usage of the tool and/or optimizations mentioned in the white-paper should be considered. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Run workload performance test to determine the best Azure VM SKU and size to use (determine the number of hosts per pool)</t>
+          <t>Plan/Assess AVD Session Host configuration management strategy</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Use the link provided to set a starting point for SKU decision, then validate using a performance test. Ensure a minimum of 4 cores for Production is selected per Session Host (multi-session)</t>
+          <t>Determine if a configuration management tool is already in place to manage Host Pool VM configuration after initial deployment, For example SCCM, MEM/Intune, GPO, 3rd-party solutions.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verify AVD scalability limits for the environment</t>
+          <t>Determine if Microsoft OneDrive will be part of AVD deployment</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is critical to check AVD capacioty and limits reported in the referenced article. </t>
+          <t>Review article provided and check 'Known Folder Redirection' and 'Files OnDemand' OneDrive features should be considered and eventually adopted.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determine if  Session Hosts will require GPU</t>
+          <t>Determine if Microsoft Teams will be part of AVD deployment</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host Pools with GPU require special configuration, please be sure to review the referenced article. </t>
+          <t>Be sure to review this article and use the latest version, review and evaluate Teams exclusions to reduce profile size.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Recommended to use VM SKUs able to leverage Accelerated Networking feature in Azure.</t>
+          <t xml:space="preserve">Do not use the same storage account/share as Profile/Office containers </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Whenever is possible, it is recommended to leverage VM SKUs with Accelerated Networking feature. Today pnly Windows Server OS are supported (see list in the article), in the future Windows Client OS maybe also included. </t>
+          <t xml:space="preserve">It is highly recommended to use separate storage accounts/shares to store MSIX packages. If necessary, storage can scale out independently and not being impacted by profile I/O activities. Azure offers multiple storage options that can be used for MISX app attach. We recommend using Azure Files or Azure NetApp Files as those options offer the best value between cost and management overhead. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>An Azure Active Directory tenant must be available with at least one subscription linked</t>
+          <t>Review performance considerations for MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>An Azure subscription must be parented to the same Azure AD tenant, that contains a virtual network that either contains or is connected to the Windows Server Active Directory or Azure AD DS instance.</t>
+          <t>In the referenced article, we reported few but important performance considerations for MSIX usage in AVD context, be sure to carefully review.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>A Windows Server Active Directory forest/domain is in sync with Azure Active Directory</t>
+          <t>Check proper session host permissions for MSIX share</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>You can configure this using Azure AD Connect (for hybrid organizations) or Azure AD Domain Services (for hybrid or cloud organizations).</t>
+          <t>MSIX app attach requires read-only permissions to access the file share. If you're storing your MSIX applications in Azure Files, then for your session hosts, you'll need to assign all session host VMs both storage account role-based access control (RBAC) and file share New Technology File System (NTFS) permissions on the share.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Check User Account requirements to connect to Windows Virtual Desktop</t>
+          <t>MSIX packages for 3rd-party applications</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) The user must be sourced from the same Active Directory that's connected to Azure AD. Windows Virtual Desktop does not support B2B or MSA accounts. (2) The UPN you use to subscribe to Windows Virtual Desktop must exist in the Active Directory domain the VM is joined to.</t>
+          <t>3rd-party software vendor must provide a MSIX package, it is not recommended for customer to attempt  the conversion procedure without proper support from the application owner.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Check VM requirements for AVD Session Hosts that will be created</t>
+          <t>Disable auto-update for MSIX packages</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>VMs must be Standard domain-joined or Hybrid AD-joined. Virtual machines can't be Azure AD-joined.</t>
+          <t>MSIX app attach doesn't support auto-update for MSIX applications, then should be disabled.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before using Azure Active Directory Domain Services (AAD-DS) for AVD, be sure to review the limitations. </t>
+          <t>Review operating systems support</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Compare self-managed Active Directory Domain Services, Azure Active Directory, and managed Azure Active Directory Domain Services</t>
+          <t>In order to leverage MSIX &amp; App Attach, guest OS image for AVD Host pool must be Windows 10 Enterprise or Windows 10 Enterprise Multi-session, version 2004 or later.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Session Host</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Create at least two Active Directory Domain Controllers (DCs) in Azure VNET environment close to AVD Host Pool</t>
+          <t>Evaluate the usage of Gen2 VM for Host Pool deployment</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AD DCs in Azure are recommended to reduce latency for users logging into AVD session hosts, and eventually for Azure NetApp Files and AD integration. ADC need to be able to talk to DCs for ALL child domains. As alternative, on-premise connectivity must be used to reach AD DCs. </t>
+          <t>Once selected the VM SKU that will be used for Host Pool deployment, it is recommended to use Gen2 type of the SKU for higher security and improved capabilities.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Create a specific OU in Active Directory for each Host Pool</t>
+          <t>Determine the Host Pool type to use</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recommended to create a separate OU per Host Pool under a separate OU hierarchy. These OUs will contain machine accounts of AVD Session Hosts. </t>
+          <t>Shared/Pooled or Dedicated/Personal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Review Domain GPO that will be applied to OU and impacting Host Pool VM functionalities</t>
+          <t>For Personal Host Pool type, decide on the assignment type</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carefully review, and eventually block/filter inheritance of GPOs to the OUs containing AVD Host Pools. </t>
+          <t>Confirm that the difference between automatic and direct assignment is well understood and the selected option is appropriate for the scenario in question.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Create a dedicated user account with only permissions to join VM to the domain</t>
+          <t>For Pooled Host Pool type, decide on the load balancing method</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recommended to have a specific dedicated account with specific permissions, and without the default 10 joins limitation. </t>
+          <t xml:space="preserve">Check which one to use and available options, be aware that if autoscaling will be used, it sets it to breadth-first. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Create a domain user group for each set of users that will be granted access to each Host Pool Application Group (DAG or RAG)</t>
+          <t xml:space="preserve">Estimate the number of different Host Pools to deploy </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avoid granting access per user, instead use AD groups and replicate them using ADC in Azure AD. </t>
+          <t>Based on your selection criterias, how many Host Pools you would need? You should consider to have multiple ones if:? Multiple OS images? Multiple regions? Different HW required? Different Host Pool type (shared vs. personal)? Different user requirements and SLA (Top users, Execs, Office Worker vs. Developers, etc.)? Different RDP settings (applied at Host Pool level), see https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Required number of VMs in the host pool exceeding maximum capabilities</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Review your organization password expiration policy for accounts used by Azure Files AD integration</t>
+          <t>Run workload performance test to determine the best Azure VM SKU and size to use (determine the number of hosts per pool)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>As part of the procedure to integrate Azure File Share and Active Directory authenticaton, an AD account to represent the storage account (file share) will be created. You can choose to register as a computer account or service logon account, see FAQ for details. For computer accounts, there is a default password expiration age set in AD at 30 days. Similarly, the service logon account may have a default password expiration age set on the AD domain or Organizational Unit (OU). For both account types, we recommend you check the password expiration age configured in your AD environment and plan to update the password of your storage account identity of the AD account before the maximum password age. You can consider creating a new AD Organizational Unit (OU) in AD and disabling password expiration policy on computer accounts or service logon accounts accordingly.</t>
+          <t>Use the link provided to set a starting point for SKU decision, then validate using a performance test. Ensure a minimum of 4 cores for Production is selected per Session Host (multi-session)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Review hybrid connectivity architecture for on-premises environment</t>
+          <t>Verify AVD scalability limits for the environment</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Which type of hybrid connectivity? Express Route, VPN, NVA?</t>
+          <t xml:space="preserve">It is critical to check AVD capacioty and limits reported in the referenced article. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Assess which resources users will need to access from AVD Host Pools to on-premises</t>
+          <t>Determine if  Session Hosts will require GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluate the bandwidth requirements, ensure VPN/ER bandwidth will be enough, and latency tolerable. </t>
+          <t xml:space="preserve">Host Pools with GPU require special configuration, please be sure to review the referenced article. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Review landing zone networking topology for AVD service</t>
+          <t>Recommended to use VM SKUs able to leverage Accelerated Networking feature in Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Review or recommend a new one where to place AVD Host Pools based on CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Whenever is possible, it is recommended to leverage VM SKUs with Accelerated Networking feature. Today pnly Windows Server OS are supported (see list in the article), in the future Windows Client OS maybe also included. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Assess VNET and subnet placement for multiple Host Pools</t>
+          <t>Assess how many users will connect to AVD and from which regions</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure each subnet will have enough space to scale the AVD Host Pool. For different Host Pools, it is recommended to use separate subnets  if possible. </t>
+          <t xml:space="preserve">For proper planning and and deployment, it is important to asses the maximum number of users and average concurrent sessions. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Need to control/restrict Internet outbound traffic for AVD hosts? </t>
+          <t>Determine if all users will have the same set of applications and/or different Host Pool configurations and/or OS images</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Several options are available. You can use Azure Firewall or NVA Firewall, NSG and/or Proxy. NSG is not able to enable/disable by URL, only ports and protocols.Proxy should be used only as explicit setting in user browser. Details on using Azure Firewall Premium with AVD are here on https://aka.ms/AVDfirewall and here https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Be sure to review full list of requirements for AVD URLs access.</t>
+          <t xml:space="preserve">Mutiple Host Pools maybe required to support different set of users, it is recommended to estimate how many will be necessary. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Need to control/restrict Internet outbound traffic only for users on AVD hosts? </t>
+          <t>Assess external dependencies for each Host Pool</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation, see the Security section for more details. </t>
+          <t>The dependencies on resources external to the AVD pool should be assessed and reviewed, for example Active Directory, external file shares or other storage, on-premises services and resources, network infrastructure components like VPN and or Express Route, external services and 3rd-party components. For all these resources, latency from the AVD Host Pool needs to be evaluated and connectivity considered. Additionally, BCDR considerations need to be applied to these dependencies as well.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Review UDR for AVD Host Pool subnet</t>
+          <t>Review client OS used and AVD client type</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Custom UDR can be applied to AVD Host Pool subnet, for example to redirect to Azure Firewall or NVA. In this case is recommended to carefully review to ensure optimal path for outbound traffic to AVD control plane is used. Service Tags can now be used with UDR, then AVD management plane traffic can be easily whitelisted. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Review limitations of each client and compare multiple options when possible.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Ensure AVD control plane endpoints are accessible</t>
+          <t>Check licensing requirements</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Required URLs for AVD control plane access by session hosts are documented here: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. A check tool is available to verify connectivity from the session hosts: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Customers who are properly licensed to run Windows Virtual Desktop workloads are eligible to apply a Windows license to their session host virtual machines and run them without paying for another license.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Check the network bandwidth required for each user and in total for the VM SKU</t>
+          <t>Run a PoC to test end-to-end user experience to verify impact caused by network latency</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is recommended to assess and review networking bandwidth requirements for users, based on the specific workload type. The referenced article provide general estimations and recommendations, but specific measure are required for proper sizing. </t>
+          <t xml:space="preserve">Depending on the user locations, and AVD region deployment, users may have a non-optimal experience, hence is important to test as soon as possible in a small PoC environment. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Session Host</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Gen2 VM for Host Pool deployment</t>
+          <t xml:space="preserve">Determine if users will access AVD using full desktops and/or remote applications </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Once selected the VM SKU that will be used for Host Pool deployment, it is recommended to use Gen2 type of the SKU for higher security and improved capabilities.</t>
+          <t xml:space="preserve">Determine if users will be offered full desktops and/or Remote Application Groups. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determine how applications will be deployed in AVD Host Pools</t>
+          <t xml:space="preserve">All users will have the same RDP settings? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Applications can be preinstalled in the golden image/s, can be attached using MSIX &amp; AppAttach feature or distributing to hosts after pool deployment using traditional SW distribution methods.</t>
+          <t>RDP settings can currently only be configured at the host pool level, not per user / group.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estimate the number of golden images that will be required</t>
+          <t>Evaluate RDP ShortPath for clients connecting from managed internal networks</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Will they use fslogix application masking which would lend itself to a single image, or multi images with different applications baked in: what is necessitating more than one image to be used?</t>
+          <t>RDP Shortpath for managed networks is a feature of Azure Virtual Desktop that establishes a direct UDP-based transport between Remote Desktop Client and Session host. The removal of extra relay reduces the round-trip time, which improves user experience with latency-sensitive applications and input methods. To support RDP Shortpath, the Azure Virtual Desktop client needs a direct line of sight to the session host, and must be running either Windows 10 or Windows 7 and have the Windows Desktop client installed.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determine which OS image/s you will use for Host Pool deployment</t>
+          <t>Determine in which Azure region/s AVD Host Pools will be deployed.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determine which Guest OS will be used to deploy each Host Pool: Windows 10 vs. Windows Server, Marketplace vs. Custom images</t>
+          <t>AVD is a non-regional service, Host Pools can be created in any region, automatic redirection from closest front-end will happen automatically.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>If a custom image will be used, determine if there is an automated build process?</t>
+          <t>Determine if hybrid connectivity is required to connect to on-premises environment</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If nothing exists, consider using Azure Image Builder to automate the build process. </t>
+          <t xml:space="preserve">If required to connect to on-premises environment, assess the current connectivity option or plan for the required connectivity. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>If a custom image will be used, is there a plan to organise and manage the lifecycle of your images?</t>
+          <t>Did you evaluate latency between users location and Azure AVD infrastructure?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evaluate Azure Compute Gallery.</t>
+          <t xml:space="preserve">Run the 'Windows Virtual Desktop Experience Estimator' tool to select the best Azure region to deploy Host Pools. Beyond 150ms latency, user experience may be not optimal. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>If custom image will be used, check recommended best practices for AVD on how to build master image</t>
+          <t>Determine metadata location for AVD service</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are some known best practices and recommendations for the golden image customization, be sure to check the referenced article. </t>
+          <t xml:space="preserve">AVD store metadata only to run the service in specific geographic locations, determine what is available today and if suitable based on customer requirements. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Virtual-Desktop-Optimization-Tool</t>
+          <t>Check Azure quotas and availability for specific VM sizes in the selected regions</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">This tool-set has been created to automatically apply setting referenced in white paper 'Optimizing Windows 10, version 2004 for a Virtual Desktop Infrastructure (VDI) role': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Usage of the tool and/or optimizations mentioned in the white-paper should be considered. </t>
+          <t xml:space="preserve">Check for specific VM SKUs, especially if you need GPU or high-specs SKUs, and eventually Azure NetApp Files availability if used. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Plan/Assess AVD Session Host configuration management strategy</t>
+          <t>Check for Availability Zone (AZ) availability in the selected region</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine if a configuration management tool is already in place to manage Host Pool VM configuration after initial deployment, For example SCCM, MEM/Intune, GPO, 3rd-party solutions.</t>
+          <t>See BCDR section for more details.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determine if Microsoft OneDrive will be part of AVD deployment</t>
+          <t>Create at least two Active Directory Domain Controllers (DCs) in Azure VNET environment close to AVD Host Pool</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Review article provided and check 'Known Folder Redirection' and 'Files OnDemand' OneDrive features should be considered and eventually adopted.</t>
+          <t xml:space="preserve">AD DCs in Azure are recommended to reduce latency for users logging into AVD session hosts, and eventually for Azure NetApp Files and AD integration. ADC need to be able to talk to DCs for ALL child domains. As alternative, on-premise connectivity must be used to reach AD DCs. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determine if Microsoft Teams will be part of AVD deployment</t>
+          <t>Create a specific OU in Active Directory for each Host Pool</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Be sure to review this article and use the latest version, review and evaluate Teams exclusions to reduce profile size.</t>
+          <t xml:space="preserve">Recommended to create a separate OU per Host Pool under a separate OU hierarchy. These OUs will contain machine accounts of AVD Session Hosts. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Do not use the same storage account/share as Profile/Office containers </t>
+          <t>Review Domain GPO that will be applied to OU and impacting Host Pool VM functionalities</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is highly recommended to use separate storage accounts/shares to store MSIX packages. If necessary, storage can scale out independently and not being impacted by profile I/O activities. Azure offers multiple storage options that can be used for MISX app attach. We recommend using Azure Files or Azure NetApp Files as those options offer the best value between cost and management overhead. </t>
+          <t xml:space="preserve">Carefully review, and eventually block/filter inheritance of GPOs to the OUs containing AVD Host Pools. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Review performance considerations for MSIX</t>
+          <t>Create a dedicated user account with only permissions to join VM to the domain</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>In the referenced article, we reported few but important performance considerations for MSIX usage in AVD context, be sure to carefully review.</t>
+          <t xml:space="preserve">Recommended to have a specific dedicated account with specific permissions, and without the default 10 joins limitation. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Check proper session host permissions for MSIX share</t>
+          <t>Create a domain user group for each set of users that will be granted access to each Host Pool Application Group (DAG or RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MSIX app attach requires read-only permissions to access the file share. If you're storing your MSIX applications in Azure Files, then for your session hosts, you'll need to assign all session host VMs both storage account role-based access control (RBAC) and file share New Technology File System (NTFS) permissions on the share.</t>
+          <t xml:space="preserve">Avoid granting access per user, instead use AD groups and replicate them using ADC in Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>MSIX packages for 3rd-party applications</t>
+          <t>Review your organization password expiration policy for accounts used by Azure Files AD integration</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>3rd-party software vendor must provide a MSIX package, it is not recommended for customer to attempt  the conversion procedure without proper support from the application owner.</t>
+          <t>As part of the procedure to integrate Azure File Share and Active Directory authenticaton, an AD account to represent the storage account (file share) will be created. You can choose to register as a computer account or service logon account, see FAQ for details. For computer accounts, there is a default password expiration age set in AD at 30 days. Similarly, the service logon account may have a default password expiration age set on the AD domain or Organizational Unit (OU). For both account types, we recommend you check the password expiration age configured in your AD environment and plan to update the password of your storage account identity of the AD account before the maximum password age. You can consider creating a new AD Organizational Unit (OU) in AD and disabling password expiration policy on computer accounts or service logon accounts accordingly.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Disable auto-update for MSIX packages</t>
+          <t>An Azure Active Directory tenant must be available with at least one subscription linked</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>MSIX app attach doesn't support auto-update for MSIX applications, then should be disabled.</t>
+          <t>An Azure subscription must be parented to the same Azure AD tenant, that contains a virtual network that either contains or is connected to the Windows Server Active Directory or Azure AD DS instance.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Review operating systems support</t>
+          <t>A Windows Server Active Directory forest/domain is in sync with Azure Active Directory</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>In order to leverage MSIX &amp; App Attach, guest OS image for AVD Host pool must be Windows 10 Enterprise or Windows 10 Enterprise Multi-session, version 2004 or later.</t>
+          <t>You can configure this using Azure AD Connect (for hybrid organizations) or Azure AD Domain Services (for hybrid or cloud organizations).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Session Host </t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine which type of managed disk will be used for the Session Hosts  </t>
+          <t>Check User Account requirements to connect to Windows Virtual Desktop</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Standard HDD, Standard SSD, or Premium SSD, Ephemeral disks are not supported, Ultra-Disks not recommended. Recommended to evaluate Premium for OS disk if user density is not low, and if you are going to use Cloud Cache. </t>
+          <t>(1) The user must be sourced from the same Active Directory that's connected to Azure AD. Windows Virtual Desktop does not support B2B or MSA accounts. (2) The UPN you use to subscribe to Windows Virtual Desktop must exist in the Active Directory domain the VM is joined to.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determine which storage backend solution will be used for FSLogix Profile and Office Containers</t>
+          <t>Check VM requirements for AVD Session Hosts that will be created</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, VM based File Server. File-server not recommended. Azure Files Premium typically a good starting point. NetApp only usually required for large scale / high-performant environment. </t>
+          <t>VMs must be Standard domain-joined or Hybrid AD-joined. Virtual machines can't be Azure AD-joined.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the possibility to separate Profile Containers from Office Containers</t>
+          <t xml:space="preserve">Before using Azure Active Directory Domain Services (AAD-DS) for AVD, be sure to review the limitations. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The recommendation in Windows Virtual Desktop is to use Profile Container without Office Container unless you are planning for specific Business Continuity and Disaster Recovery (BCDR) scenarios as described in the Disaster Recovery section below. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Compare self-managed Active Directory Domain Services, Azure Active Directory, and managed Azure Active Directory Domain Services</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Verify storage scalability limits to support Host Pool requirements</t>
+          <t>Assess the requirement for host pool auto-scaling capability</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>As a starting point for estimating profile container storage performance requirements we recommend to assume 10 IOPS per user in the steady state and 50 IOPS per user during sign-in/sign-out.</t>
+          <t xml:space="preserve">The scaling tool provides a low-cost automation option for customers who want to optimize their session host VM costs. You can use the scaling tool to schedule VMs to start and stop based on Peak and Off-Peak business hours, scale out VMs based on number of sessions per CPU core, scale in VMs during Off-Peak hours, leaving the minimum number of session host VMs running. Not available yet for Personal Host Pool type, recommended to have a separate setup for each host pool. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>If NetApp Files storage is used, check storage service availability in your specific region.</t>
+          <t>Periodically check Azure Advisor recommendations for AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>If a second region is required for DR purposes verify NetApp availability there as well.</t>
+          <t>Azure Advisor analyzes your configurations and telemetry to offer personalized recommendations to solve common problems. With these recommendations, you can optimize your Azure resources for reliability, security, operational excellence, performance, and cost.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>For optimal performance, the storage solution and the FSLogix profile container should be in the same data-center location.</t>
+          <t>Plan for a golden image update management strategy</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Avoid introducing additional latency and costs associated with cross-region network traffic where possible.</t>
+          <t>Prepare a strategy to manage updates to golden images, for example to apply security hotfixes and/or update applications installed inside the image. Azure Image Builder Service is a 1st party solution for automating the build and customisation of VMs.ARM templates can be used to create new hosts, then decommission the old ones: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Recommended approach is to create a new pool side-by-side, easier to rollback, not usable for dedicated poolRe-deploy and increase the number of VMs with the ARM template is also a viable option. Customers may also want to use existing software distribution methods to update image without re-deploy, for exampel with SCCM or similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure the recommended antivirus exclusions for FSLogix (includes not scanning VHD(x) files on connect).</t>
+          <t>Plan for a Session Host patching and update strategy</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Make sure to configure the following antivirus exclusions for FSLogix Profile Container virtual hard drives, as documented in the referenced article.</t>
+          <t xml:space="preserve">Customers can have several options:- Microsoft Endpoint Configuration Manager, this article explains how to configure Microsoft Endpoint Configuration Manager to automatically apply updates to a Windows Virtual Desktop host running Windows 10 Enterprise multi-session: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- 3rd Party that supports you OS.- Azure Update Management (Azure Automation), today not supported for client OS: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt is recommended to move away from a patching strategy and move to a re-imaging strategy if possible. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Review FSLogix registry keys and determine which ones to apply</t>
+          <t>Assess the requirement for a AVD test canary environment</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Default basic and recommended settings are here: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises See here for core set: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee here for complete reference: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Host pools are a collection of one or more identical virtual machines within Windows Virtual Desktop environment. We highly recommend you create a validation host pool where service updates are applied first. This allows you to monitor service updates before the service applies them to your standard or non-validation environment.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Check usage of concurrent or multiple connections to the same profile</t>
+          <t>Determine Host Pool deployment strategy</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Concurrent or multiple connections are discouraged in Windows Virtual Desktop. The best practice is to create a different profile location for each session (as a host pool).</t>
+          <t>A AVD Host Pool can be deployed in several ways: Azure Portal, ARM templates, Azure CLI tool, Powershell, manual VM creation with registration token, Terraform, etc. It is important to adopt proper method/s to support automatic deployment through automation and CI/CD tools.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Review best practices and key considerations for storage sizing</t>
+          <t>Turn on VMs regulary every 90 days for token refresh</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As a general estimation, to be validated in a test environment, for each user 5 - 15 IOPS should be first considered, depending on the workload. Azure Files: Premium max 100k IOPS per share (max 100TB) and up to 5Gbps with 3ms latency. Be aware of how Azure Files is provisioned, that is IOPS strictly tied t'o provisioned SIZE. Burst sizing capability in some cases. Be sure to provision UPFRONT more space than required to be sure to have enough IOPS. NOTE: Azure Premium maybe cheaper than Standard because you don't pay transactions, then important detail to keep in mind.Azure NetApp Files: remember max 1000 IPs connected, can adjust IOPS on the fly, minimum 4TB provisioned capacity. </t>
+          <t>After you register a VM to a host pool within the Windows Virtual Desktop service, the agent regularly refreshes the VM's token whenever the VM is active. The certificate for the registration token is valid for 90 days. Because of this 90-day limit, we recommend VMs to be online for 20 minutes every 90 days so that the machine can refresh its tokens and update the agent and side-by-side stack components.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Check best-practices for Azure Files (if used)</t>
+          <t>Enable Azure Monitoring for AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
+          <t>Azure Monitor for Windows Virtual Desktop is a dashboard built on Azure Monitor Workbooks that helps IT professionals understand their Windows Virtual Desktop environments. Read the referenced article to learn how to set up Azure Monitor for Windows Virtual Desktop to monitor your Windows Virtual Desktop environments.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Check best-practices for NetApp Files (if used)</t>
+          <t>Enable and redirect diagnostic settings for Workspaces, Host Pools, Application Groups and Host VMs to Log Analytics workspace</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
+          <t xml:space="preserve">Windows Virtual Desktop uses Azure Monitor and Log Analytics for monitoring and alerts like many other Azure services. This lets admins identify issues through a single interface. The service creates activity logs for both user and administrative actions.  Each activity log falls under the following categories: Management, Feed, Connections, Host Registration, Errors, Checkpoints. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Review and confirm configured maximum profile size in FSLogix</t>
+          <t>Create alerts on the profile storage to be alerted in case of high usage and throttling</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Profile containers have a default max size of 30GB. If large Profile Containers are anticipated, and customers wants to try to keep them small, consider using OneDrive to host Office 365 files outside the FSLogix profile.</t>
+          <t xml:space="preserve">See the referenced article and this additional one to setup proper monitoring and alerting for storage: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>If FSLogix Cloud Cache is used, move the Cache directory to temporary drive.</t>
+          <t xml:space="preserve">Configure Azure Service Health for AVD alerts </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache uses local disk as cache and may generate lot of pressure on the VM disk. Recommended to leverage the power of temporary (and locally attached) VM disk, if possible based on the VM SKU. </t>
+          <t>You can use Azure Service Health to monitor service issues and health advisories for Windows Virtual Desktop. Azure Service Health can notify you with different types of alerts (for example, email or SMS), help you understand the effect of an issue, and keep you updated as the issue resolves.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Review the usage of FSLogix redirection.</t>
+          <t>Review hybrid connectivity architecture for on-premises environment</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML file is used to control what folders are redirected out of the profile container to the C: drive. Exclusions should be the exception and should never be used unless the specific exclusion is completely understood by the person configuring the exclusion. Exclusions should always be fully tested in the environment where they are intended to be implemented. Configuring exclusions may impact functionality, stability and performance.</t>
+          <t>Which type of hybrid connectivity? Express Route, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>If Azure NetApp Files storage is used, check AD Site name setting in the AD Connection.</t>
+          <t>Assess which resources users will need to access from AVD Host Pools to on-premises</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>An Active Directory Site should be created for the Azure virtual network environment where ANF subnet will be created, and that site name should be specified in the ANF connection property when executing the join procedure as explained in the reference article.</t>
+          <t xml:space="preserve">Evaluate the bandwidth requirements, ensure VPN/ER bandwidth will be enough, and latency tolerable. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure AVD users will not have local admin privileges on AVD Hosts. </t>
+          <t>Review landing zone networking topology for AVD service</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>We recommend you don't grant your users admin access to virtual desktops. If you need software packages, we recommend you make them available through configuration management utilities like Microsoft Endpoint Manager. In a multi-session environment, we recommend you don't let users install software directly.</t>
+          <t>Review or recommend a new one where to place AVD Host Pools based on CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Ensure anti-virus and anti-malware solution is used</t>
+          <t>Assess VNET and subnet placement for multiple Host Pools</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint now supports Windows Virtual Desktop for Windows 10 Enterprise multi-session.Check article for onboarding non-persistent virtual desktop infrastructure (VDI) devices: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Ensure each subnet will have enough space to scale the AVD Host Pool. For different Host Pools, it is recommended to use separate subnets  if possible. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Ensure proper AV exclusions are in place</t>
+          <t xml:space="preserve">Need to control/restrict Internet outbound traffic for AVD hosts? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Be sure the following exclusions are in place: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Several options are available. You can use Azure Firewall or NVA Firewall, NSG and/or Proxy. NSG is not able to enable/disable by URL, only ports and protocols.Proxy should be used only as explicit setting in user browser. Details on using Azure Firewall Premium with AVD are here on https://aka.ms/AVDfirewall and here https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Be sure to review full list of requirements for AVD URLs access.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Assess disk encryption requirements for AVD Hosts</t>
+          <t xml:space="preserve">Need to control/restrict Internet outbound traffic only for users on AVD hosts? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Disks in Azure are already encrypted at rest by default with Microsoft managed keys.Host VM OS disk encryption is possible and supported using ADE and DES: sensible and peristent user data should not be storedf on the Session Host disk, then it should be used only if strictly required for compliance reason. Encryption of FSLogix storage using Azure Files can be done using SSE on Azure Storage.For OneDrive encryption, see this article: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation, see the Security section for more details. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Need to control/restrict user Internet navigation from AVD session hosts?</t>
+          <t>Review UDR for AVD Host Pool subnet</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation. </t>
+          <t xml:space="preserve">Custom UDR can be applied to AVD Host Pool subnet, for example to redirect to Azure Firewall or NVA. In this case is recommended to carefully review to ensure optimal path for outbound traffic to AVD control plane is used. Service Tags can now be used with UDR, then AVD management plane traffic can be easily whitelisted. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Azure Security Center (ASC) for AVD Session Hosts</t>
+          <t>Ensure AVD control plane endpoints are accessible</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>We recommend you enable Azure Security Center Standard for subscriptions, virtual machines, key vaults, and storage accounts.With Azure Security Center Standard is possible to assess and manage vulnerabilities, assess compliance with common frameworks like PCI, strengthen the overall security of your AVD environment.</t>
+          <t>Required URLs for AVD control plane access by session hosts are documented here: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. A check tool is available to verify connectivity from the session hosts: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Review Active Directory GPOs to secure RDP sessions</t>
+          <t>Check the network bandwidth required for each user and in total for the VM SKU</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Should be used, for example to impose desktop lockout and idle session termination. Existing GPOs applied to on-premises environment should be reviewed and eventually applied to secure also AVD Hosts. </t>
+          <t xml:space="preserve">It is recommended to assess and review networking bandwidth requirements for users, based on the specific workload type. The referenced article provide general estimations and recommendations, but specific measure are required for proper sizing. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of MFA for AVD users</t>
+          <t xml:space="preserve">Ensure AVD users will not have local admin privileges on AVD Hosts. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>For additional details and insights, see this article: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>We recommend you don't grant your users admin access to virtual desktops. If you need software packages, we recommend you make them available through configuration management utilities like Microsoft Endpoint Manager. In a multi-session environment, we recommend you don't let users install software directly.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Conditional Access for users</t>
+          <t>Ensure anti-virus and anti-malware solution is used</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>Enabling Conditional Access lets you manage risks before you grant users access to your Windows Virtual Desktop environment. When deciding which users to grant access to, we recommend you also consider who the user is, how they sign in, and which device they're using.</t>
+          <t>Microsoft Defender for Endpoint now supports Windows Virtual Desktop for Windows 10 Enterprise multi-session.Check article for onboarding non-persistent virtual desktop infrastructure (VDI) devices: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Enable diagnostic and audit logging to central Log Analytics workspace</t>
+          <t>Ensure proper AV exclusions are in place</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enabling audit log collection lets you view user and admin activity related to Windows Virtual Desktop. This is also a requirement to eanble and use AVD Monitoring tool. Highly recommended to enable. </t>
+          <t>Be sure the following exclusions are in place: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assess the requirement to use custom RBAC roles for AVD management </t>
+          <t>Assess disk encryption requirements for AVD Hosts</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD uses Azure role-based access controls (RBAC) to assign roles to users and admins. These roles give admins permission to carry out certain tasks. If separation of duties is required, Windows Virtual Desktop has additional roles that let you separate management roles for host pools, app groups, and workspaces. This separation lets you have more granular control over administrative tasks. These roles are named in compliance with Azure's standard roles and least-privilege methodology.</t>
+          <t>Disks in Azure are already encrypted at rest by default with Microsoft managed keys.Host VM OS disk encryption is possible and supported using ADE and DES: sensible and peristent user data should not be storedf on the Session Host disk, then it should be used only if strictly required for compliance reason. Encryption of FSLogix storage using Azure Files can be done using SSE on Azure Storage.For OneDrive encryption, see this article: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Review all security best practices for AVD environment</t>
+          <t>Need to control/restrict user Internet navigation from AVD session hosts?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A comprehensive set of security best practices and recommendations are contained in the referenced article, it is recommended to review. </t>
+          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Enable Azure Monitoring for AVD</t>
+          <t>Evaluate the usage of Azure Security Center (ASC) for AVD Session Hosts</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Windows Virtual Desktop is a dashboard built on Azure Monitor Workbooks that helps IT professionals understand their Windows Virtual Desktop environments. Read the referenced article to learn how to set up Azure Monitor for Windows Virtual Desktop to monitor your Windows Virtual Desktop environments.</t>
+          <t>We recommend you enable Azure Security Center Standard for subscriptions, virtual machines, key vaults, and storage accounts.With Azure Security Center Standard is possible to assess and manage vulnerabilities, assess compliance with common frameworks like PCI, strengthen the overall security of your AVD environment.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Enable and redirect diagnostic settings for Workspaces, Host Pools, Application Groups and Host VMs to Log Analytics workspace</t>
+          <t>Review Active Directory GPOs to secure RDP sessions</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows Virtual Desktop uses Azure Monitor and Log Analytics for monitoring and alerts like many other Azure services. This lets admins identify issues through a single interface. The service creates activity logs for both user and administrative actions.  Each activity log falls under the following categories: Management, Feed, Connections, Host Registration, Errors, Checkpoints. </t>
+          <t xml:space="preserve">Should be used, for example to impose desktop lockout and idle session termination. Existing GPOs applied to on-premises environment should be reviewed and eventually applied to secure also AVD Hosts. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Create alerts on the profile storage to be alerted in case of high usage and throttling</t>
+          <t>Evaluate the usage of MFA for AVD users</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">See the referenced article and this additional one to setup proper monitoring and alerting for storage: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>For additional details and insights, see this article: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configure Azure Service Health for AVD alerts </t>
+          <t>Evaluate the usage of Conditional Access for users</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>You can use Azure Service Health to monitor service issues and health advisories for Windows Virtual Desktop. Azure Service Health can notify you with different types of alerts (for example, email or SMS), help you understand the effect of an issue, and keep you updated as the issue resolves.</t>
+          <t>Enabling Conditional Access lets you manage risks before you grant users access to your Windows Virtual Desktop environment. When deciding which users to grant access to, we recommend you also consider who the user is, how they sign in, and which device they're using.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement for host pool auto-scaling capability</t>
+          <t>Enable diagnostic and audit logging to central Log Analytics workspace</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The scaling tool provides a low-cost automation option for customers who want to optimize their session host VM costs. You can use the scaling tool to schedule VMs to start and stop based on Peak and Off-Peak business hours, scale out VMs based on number of sessions per CPU core, scale in VMs during Off-Peak hours, leaving the minimum number of session host VMs running. Not available yet for Personal Host Pool type, recommended to have a separate setup for each host pool. </t>
+          <t xml:space="preserve">Enabling audit log collection lets you view user and admin activity related to Windows Virtual Desktop. This is also a requirement to eanble and use AVD Monitoring tool. Highly recommended to enable. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Periodically check Azure Advisor recommendations for AVD</t>
+          <t xml:space="preserve">Assess the requirement to use custom RBAC roles for AVD management </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor analyzes your configurations and telemetry to offer personalized recommendations to solve common problems. With these recommendations, you can optimize your Azure resources for reliability, security, operational excellence, performance, and cost.</t>
+          <t>AVD uses Azure role-based access controls (RBAC) to assign roles to users and admins. These roles give admins permission to carry out certain tasks. If separation of duties is required, Windows Virtual Desktop has additional roles that let you separate management roles for host pools, app groups, and workspaces. This separation lets you have more granular control over administrative tasks. These roles are named in compliance with Azure's standard roles and least-privilege methodology.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Plan for a golden image update management strategy</t>
+          <t>Review all security best practices for AVD environment</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare a strategy to manage updates to golden images, for example to apply security hotfixes and/or update applications installed inside the image. Azure Image Builder Service is a 1st party solution for automating the build and customisation of VMs.ARM templates can be used to create new hosts, then decommission the old ones: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Recommended approach is to create a new pool side-by-side, easier to rollback, not usable for dedicated poolRe-deploy and increase the number of VMs with the ARM template is also a viable option. Customers may also want to use existing software distribution methods to update image without re-deploy, for exampel with SCCM or similar.</t>
+          <t xml:space="preserve">A comprehensive set of security best practices and recommendations are contained in the referenced article, it is recommended to review. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Plan for a Session Host patching and update strategy</t>
+          <t>Determine which storage backend solution will be used for FSLogix Profile and Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customers can have several options:- Microsoft Endpoint Configuration Manager, this article explains how to configure Microsoft Endpoint Configuration Manager to automatically apply updates to a Windows Virtual Desktop host running Windows 10 Enterprise multi-session: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- 3rd Party that supports you OS.- Azure Update Management (Azure Automation), today not supported for client OS: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt is recommended to move away from a patching strategy and move to a re-imaging strategy if possible. </t>
+          <t xml:space="preserve">Azure NetApp Files, Azure Files, VM based File Server. File-server not recommended. Azure Files Premium typically a good starting point. NetApp only usually required for large scale / high-performant environment. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement for a AVD test canary environment</t>
+          <t>Evaluate the possibility to separate Profile Containers from Office Containers</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Host pools are a collection of one or more identical virtual machines within Windows Virtual Desktop environment. We highly recommend you create a validation host pool where service updates are applied first. This allows you to monitor service updates before the service applies them to your standard or non-validation environment.</t>
+          <t xml:space="preserve">The recommendation in Windows Virtual Desktop is to use Profile Container without Office Container unless you are planning for specific Business Continuity and Disaster Recovery (BCDR) scenarios as described in the Disaster Recovery section below. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determine Host Pool deployment strategy</t>
+          <t>Verify storage scalability limits to support Host Pool requirements</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>A AVD Host Pool can be deployed in several ways: Azure Portal, ARM templates, Azure CLI tool, Powershell, manual VM creation with registration token, Terraform, etc. It is important to adopt proper method/s to support automatic deployment through automation and CI/CD tools.</t>
+          <t>As a starting point for estimating profile container storage performance requirements we recommend to assume 10 IOPS per user in the steady state and 50 IOPS per user during sign-in/sign-out.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Turn on VMs regulary every 90 days for token refresh</t>
+          <t>If NetApp Files storage is used, check storage service availability in your specific region.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>After you register a VM to a host pool within the Windows Virtual Desktop service, the agent regularly refreshes the VM's token whenever the VM is active. The certificate for the registration token is valid for 90 days. Because of this 90-day limit, we recommend VMs to be online for 20 minutes every 90 days so that the machine can refresh its tokens and update the agent and side-by-side stack components.</t>
+          <t>If a second region is required for DR purposes verify NetApp availability there as well.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determine the expected High Availability SLA for applications/desktops published through AVD</t>
+          <t>For optimal performance, the storage solution and the FSLogix profile container should be in the same data-center location.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD control plan does not offer a financially backed service level agreement. We strive to attain at least 99.9% availability for the Windows Virtual Desktop service URLs. The availability of the session host virtual machines in your subscription is covered by the Virtual Machines SLA. Dependent resources/services and infrastructure availability must be also considered to properly satisfy global high-availability requirements. </t>
+          <t>Avoid introducing additional latency and costs associated with cross-region network traffic where possible.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Assess Geo Disaster Recovery region for AVD Host Pools</t>
+          <t>Configure the recommended antivirus exclusions for FSLogix (includes not scanning VHD(x) files on connect).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>Active-Active' model can be achieved with multiple host pools in different regions. A single Host Pool with VMs from different regions is not recommended.If multiple pools for same users will be used, the problem of how to synchronize/replicate user profiles must be solved. FSLogix Cloud Cache could be used, but need to be carefully reviewed and planned, or customers can decide to do not synchronize/replicate at all. 'Active-Passive' can be achieved using Azure Site Recovery (ASR) or on-demand Pool deployment with automated mechanism.</t>
+          <t>Make sure to configure the following antivirus exclusions for FSLogix Profile Container virtual hard drives, as documented in the referenced article.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Separate critical applications in different AVD Host Pools</t>
+          <t>Review FSLogix registry keys and determine which ones to apply</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Before approaching Windows Virtual Desktop BCDR planning and design, it is important to initially consider which applications are consumed through AVD are critical. You may want to separate them from non-critical apps and use a separate Host Pool with a different disaster recovery approach and capabilities.</t>
+          <t xml:space="preserve">Default basic and recommended settings are here: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises See here for core set: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee here for complete reference: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Plan the best resiliency option for AVD Host Pool deployment</t>
+          <t>Check usage of concurrent or multiple connections to the same profile</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? Did you select the proper resiliency level for your Host Pool VMs (Availability Set vs. Availability Zones)?? Are you aware of implications on HA SLA and scalability limits that come with AS or AZ? ? You can currently deploy 399 VMs per Windows Virtual Desktop ARM template deployment without Availability Sets, or 200 VMs per Availability Set.? You can increase the number of VMs per deployment by switching off Availability Sets in either the ARM template or the Azure portal host pool enrollment.Deploying AZ is now possible, one AZ at time at the moment, need to manually create a fraction of VMs in each desired AZ. </t>
+          <t>Concurrent or multiple connections are discouraged in Windows Virtual Desktop. The best practice is to create a different profile location for each session (as a host pool).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement to backup AVD Session Hosts</t>
+          <t>Review best practices and key considerations for storage sizing</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Backup can be used also to protect Host Pool VMs, this practice is supported, even if Host Pool VMs should be stateless. This option could be considered for Personal Host Pools. </t>
+          <t xml:space="preserve">As a general estimation, to be validated in a test environment, for each user 5 - 15 IOPS should be first considered, depending on the workload. Azure Files: Premium max 100k IOPS per share (max 100TB) and up to 5Gbps with 3ms latency. Be aware of how Azure Files is provisioned, that is IOPS strictly tied t'o provisioned SIZE. Burst sizing capability in some cases. Be sure to provision UPFRONT more space than required to be sure to have enough IOPS. NOTE: Azure Premium maybe cheaper than Standard because you don't pay transactions, then important detail to keep in mind.Azure NetApp Files: remember max 1000 IPs connected, can adjust IOPS on the fly, minimum 4TB provisioned capacity. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Assess which data need to be protected inside the Profile and Office Containers</t>
+          <t>Check best-practices for Azure Files (if used)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not all data inside FSLogix user profiles may deserve protection from disaster. Additionally, if external storage is used, for example OneDrive or File Servers/Shares, what is remaining in the FSLogix profile is minimal and could be lost in some extreme circumstances. In other cases, data inside the profile can be rebuilt from other storages (for example Outlook Inbox in cached mode). </t>
+          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Build a backup protection strategy for Profile and Office Containers</t>
+          <t>Check best-practices for NetApp Files (if used)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Preventing data loss for critical user data is important, first step is to assess which data need to be saved and protected. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary. Appropriate mechanism must be considered to provide protection for critical user data. Azure Backup service can be used to protect Profile and Office Containers data when stored on Azure Files Standard and Premium tiers. Azure NetApp Files Snapshots and Policies can be used for Azure NetApp Files (all tiers).</t>
+          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Assess Profile Container storage replication requirements and resiliency for BCDR purpose</t>
+          <t>Review and confirm configured maximum profile size in FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>In AVD, multiple replication mechanisms and strategies can be used for user data residing in FSLogix containers:? Profile Pattern #1: Native Azure storage replication mechanisms, for example Azure Files Standard GRS replication, Azure NetApp Files Cross Region Replication, or Azure Files Sync for VM-based file servers? Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files is recommended.? LRS with local only resiliency can be used if no zone/region protection is required.? NOTE: Azure Files Share Standard is LRS/ZRS/GRS, but with 100TB large support enabled only LRS/ZRS are supported. ? Profile Pattern #2: FSLogix Cloud Cache is built in automatic mechanism to replicate containers between different (up to 4) storage accounts. Cloud Cache should be used only when:? User Profile or Office containers data availability required high-availability SLA is critical and need to be resilient to region failure.? Selected storage option is not able to satisfy BCDR requirements. For example, with Azure File Share Premium tier, or Azure File Share Standard with Large File Support enabled, GRS is not available.? When replication between disparate storage is required.? Profile Pattern #3: Only set up geo disaster recovery for application data and not for user data/profile containers: store important application data in separate storages, like OneDrive or other external storage with its own built-in DR mechanism.</t>
+          <t>Profile containers have a default max size of 30GB. If large Profile Containers are anticipated, and customers wants to try to keep them small, consider using OneDrive to host Office 365 files outside the FSLogix profile.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Review Azure NetApp Files DR strategy</t>
+          <t>If FSLogix Cloud Cache is used, move the Cache directory to temporary drive.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files is essentially is LRS (locally replicated storage), then you need to architect something more if you want cross-region replication. The recommendation for cross-region at the moment is NetApp Cloud Sync, replicating to another Azure region (and NetApp Volume). Backup: Backups are handled by snapshots, but are not automatic, need to scheduled using policies. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. There is a maximum limit of snapshots (255) per volume as documented here: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">Cloud Cache uses local disk as cache and may generate lot of pressure on the VM disk. Recommended to leverage the power of temporary (and locally attached) VM disk, if possible based on the VM SKU. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Review Azure Files DR strategy</t>
+          <t>Review the usage of FSLogix redirection.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: GRS for Azure Files is only available with standard SKU and no large share support, then not suitable in most customer scenarios. If geo-replication is required, when using Azure File Share Premium, replication with FSLogix Cloud Cache should be evaluated, or 'in-region' Availability Zone (AZ) only resiliency should be considered. Backup: Azure Backup fully supports Azure File Share all SKUs, and is the recommended solution to protect Profile Containers. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary.</t>
+          <t>REDIRECTION.XML file is used to control what folders are redirected out of the profile container to the C: drive. Exclusions should be the exception and should never be used unless the specific exclusion is completely understood by the person configuring the exclusion. Exclusions should always be fully tested in the environment where they are intended to be implemented. Configuring exclusions may impact functionality, stability and performance.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependencies</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Plan for Golden Image cross-region availability</t>
+          <t>If Azure NetApp Files storage is used, check AD Site name setting in the AD Connection.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Compute Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
+          <t>An Active Directory Site should be created for the Azure virtual network environment where ANF subnet will be created, and that site name should be specified in the ANF connection property when executing the join procedure as explained in the reference article.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependencies</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assess Infrastructure &amp; Application dependencies </t>
+          <t>Enable SMB multichannel when using a premium file share to host FSLogix profile containers.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>If users of the AVD infrastructure need on-premises resource access, high availability of network infrastructure required to connect is also critical and should be considered. Resiliency of authentication infrastructure needs to be assessed and evaluated. BCDR aspects for dependent applications and other resources need to be considered to ensure availability in the secondary DR location.</t>
+          <t>SMB Multichannel enables clients to use multiple network connections that provide increased performance while lowering the cost of ownership. Increased performance is achieved through bandwidth aggregation over multiple NICs and utilizing Receive Side Scaling (RSS) support for NICs to distribute the IO load across multiple CPUs.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,20 +6623,24 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Session Host </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determine which type of managed disk will be used for the Session Hosts  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard HDD, Standard SSD, or Premium SSD, Ephemeral disks are not supported, Ultra-Disks not recommended. Recommended to evaluate Premium for OS disk if user density is not low, and if you are going to use Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -6650,14 +6654,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/avd_checklist.en.xlsx
+++ b/spreadsheet/avd_checklist.en.xlsx
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determine in which Azure region/s AVD Host Pools will be deployed</t>
+          <t>Determine the expected High Availability SLA for applications/desktops published through AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD is a non-regional service, Host Pools can be created in any region, automatic redirection from closest front-end will happen automatically. </t>
+          <t xml:space="preserve">AVD control plan does not offer a financially backed service level agreement. We strive to attain at least 99.9% availability for the Windows Virtual Desktop service URLs. The availability of the session host virtual machines in your subscription is covered by the Virtual Machines SLA. Dependent resources/services and infrastructure availability must be also considered to properly satisfy global high-availability requirements. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determine if hybrid connectivity is required to connect to on-premises environment</t>
+          <t>Assess Geo Disaster Recovery region for AVD Host Pools</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If required to connect to on-premises environment, assess the current connectivity option or plan for the required connectivity. </t>
+          <t>Active-Active' model can be achieved with multiple host pools in different regions. A single Host Pool with VMs from different regions is not recommended.If multiple pools for same users will be used, the problem of how to synchronize/replicate user profiles must be solved. FSLogix Cloud Cache could be used, but need to be carefully reviewed and planned, or customers can decide to do not synchronize/replicate at all. 'Active-Passive' can be achieved using Azure Site Recovery (ASR) or on-demand Pool deployment with automated mechanism.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Did you evaluate latency between users location and Azure AVD infrastructure?</t>
+          <t>Separate critical applications in different AVD Host Pools</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Run the 'Windows Virtual Desktop Experience Estimator' tool to select the best Azure region to deploy Host Pools. Beyond 150ms latency, user experience may be not optimal. </t>
+          <t>Before approaching Windows Virtual Desktop BCDR planning and design, it is important to initially consider which applications are consumed through AVD are critical. You may want to separate them from non-critical apps and use a separate Host Pool with a different disaster recovery approach and capabilities.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determine metadata location for AVD service</t>
+          <t>Plan the best resiliency option for AVD Host Pool deployment</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD store metadata only to run the service in specific geographic locations, determine what is available today and if suitable based on customer requirements. </t>
+          <t xml:space="preserve">? Did you select the proper resiliency level for your Host Pool VMs (Availability Set vs. Availability Zones)?? Are you aware of implications on HA SLA and scalability limits that come with AS or AZ? ? You can currently deploy 399 VMs per Windows Virtual Desktop ARM template deployment without Availability Sets, or 200 VMs per Availability Set.? You can increase the number of VMs per deployment by switching off Availability Sets in either the ARM template or the Azure portal host pool enrollment.Deploying AZ is now possible, one AZ at time at the moment, need to manually create a fraction of VMs in each desired AZ. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Check Azure quotas and availability for specific VM sizes in the selected regions</t>
+          <t>Assess the requirement to backup AVD Session Hosts</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check for specific VM SKUs, especially if you need GPU or high-specs SKUs, and eventually Azure NetApp Files availability if used. </t>
+          <t xml:space="preserve">Azure Backup can be used also to protect Host Pool VMs, this practice is supported, even if Host Pool VMs should be stateless. This option could be considered for Personal Host Pools. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Dependencies</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Check for Availability Zone (AZ) availability in the selected region</t>
+          <t>Plan for Golden Image cross-region availability</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>See BCDR section for more details.</t>
+          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Compute Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Dependencies</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Assess how many users will connect to AVD and from which regions</t>
+          <t xml:space="preserve">Assess Infrastructure &amp; Application dependencies </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For proper planning and and deployment, it is important to asses the maximum number of users and average concurrent sessions. </t>
+          <t>If users of the AVD infrastructure need on-premises resource access, high availability of network infrastructure required to connect is also critical and should be considered. Resiliency of authentication infrastructure needs to be assessed and evaluated. BCDR aspects for dependent applications and other resources need to be considered to ensure availability in the secondary DR location.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determine if all users will have the same set of applications and/or different Host Pool configurations and/or OS images</t>
+          <t>Assess which data need to be protected inside the Profile and Office Containers</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools maybe required to support different set of users, it is recommended to estimate how many will be necessary. </t>
+          <t xml:space="preserve">Not all data inside FSLogix user profiles may deserve protection from disaster. Additionally, if external storage is used, for example OneDrive or File Servers/Shares, what is remaining in the FSLogix profile is minimal and could be lost in some extreme circumstances. In other cases, data inside the profile can be rebuilt from other storages (for example Outlook Inbox in cached mode). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Assess external dependencies for each Host Pool</t>
+          <t>Build a backup protection strategy for Profile and Office Containers</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>The dependencies on resources external to the AVD pool should be assessed and reviewed, for example Active Directory, external file shares or other storage, on-premises services and resources, network infrastructure components like VPN and or Express Route, external services and 3rd-party components. For all these resources, latency from the AVD Host Pool needs to be evaluated and connectivity considered. Additionally, BCDR considerations need to be applied to these dependencies as well.</t>
+          <t>Preventing data loss for critical user data is important, first step is to assess which data need to be saved and protected. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary. Appropriate mechanism must be considered to provide protection for critical user data. Azure Backup service can be used to protect Profile and Office Containers data when stored on Azure Files Standard and Premium tiers. Azure NetApp Files Snapshots and Policies can be used for Azure NetApp Files (all tiers).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Review client OS used and AVD client type</t>
+          <t>Assess Profile Container storage replication requirements and resiliency for BCDR purpose</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Review limitations of each client and compare multiple options when possible.</t>
+          <t>In AVD, multiple replication mechanisms and strategies can be used for user data residing in FSLogix containers:? Profile Pattern #1: Native Azure storage replication mechanisms, for example Azure Files Standard GRS replication, Azure NetApp Files Cross Region Replication, or Azure Files Sync for VM-based file servers? Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files is recommended.? LRS with local only resiliency can be used if no zone/region protection is required.? NOTE: Azure Files Share Standard is LRS/ZRS/GRS, but with 100TB large support enabled only LRS/ZRS are supported. ? Profile Pattern #2: FSLogix Cloud Cache is built in automatic mechanism to replicate containers between different (up to 4) storage accounts. Cloud Cache should be used only when:? User Profile or Office containers data availability required high-availability SLA is critical and need to be resilient to region failure.? Selected storage option is not able to satisfy BCDR requirements. For example, with Azure File Share Premium tier, or Azure File Share Standard with Large File Support enabled, GRS is not available.? When replication between disparate storage is required.? Profile Pattern #3: Only set up geo disaster recovery for application data and not for user data/profile containers: store important application data in separate storages, like OneDrive or other external storage with its own built-in DR mechanism.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Check licensing requirements</t>
+          <t>Review Azure NetApp Files DR strategy</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Customers who are properly licensed to run Windows Virtual Desktop workloads are eligible to apply a Windows license to their session host virtual machines and run them without paying for another license.</t>
+          <t>Geo Disaster Recovery: Azure NetApp Files is essentially is LRS (locally replicated storage), then you need to architect something more if you want cross-region replication. The recommendation for cross-region at the moment is NetApp Cloud Sync, replicating to another Azure region (and NetApp Volume). Backup: Backups are handled by snapshots, but are not automatic, need to scheduled using policies. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. There is a maximum limit of snapshots (255) per volume as documented here: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Run a PoC to test end-to-end user experience to verify impact caused by network latency</t>
+          <t>Review Azure Files DR strategy</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depending on the user locations, and AVD region deployment, users may have a non-optimal experience, hence is important to test as soon as possible in a small PoC environment. </t>
+          <t>Geo Disaster Recovery: GRS for Azure Files is only available with standard SKU and no large share support, then not suitable in most customer scenarios. If geo-replication is required, when using Azure File Share Premium, replication with FSLogix Cloud Cache should be evaluated, or 'in-region' Availability Zone (AZ) only resiliency should be considered. Backup: Azure Backup fully supports Azure File Share all SKUs, and is the recommended solution to protect Profile Containers. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine if users will access AVD using full desktops and/or remote applications </t>
+          <t>Determine how applications will be deployed in AVD Host Pools</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine if users will be offered full desktops and/or Remote Application Groups. </t>
+          <t>Applications can be preinstalled in the golden image/s, can be attached using MSIX &amp; AppAttach feature or distributing to hosts after pool deployment using traditional SW distribution methods.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">All users will have the same RDP settings? </t>
+          <t>Estimate the number of golden images that will be required</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>RDP settings can currently only be configured at the host pool level, not per user / group.</t>
+          <t>Will they use fslogix application masking which would lend itself to a single image, or multi images with different applications baked in: what is necessitating more than one image to be used?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evaluate RDP ShortPath for clients connecting from managed internal networks</t>
+          <t>Determine which OS image/s you will use for Host Pool deployment</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RDP Shortpath for managed networks is a feature of Azure Virtual Desktop that establishes a direct UDP-based transport between Remote Desktop Client and Session host. The removal of extra relay reduces the round-trip time, which improves user experience with latency-sensitive applications and input methods. To support RDP Shortpath, the Azure Virtual Desktop client needs a direct line of sight to the session host, and must be running either Windows 10 or Windows 7 and have the Windows Desktop client installed.</t>
+          <t>Determine which Guest OS will be used to deploy each Host Pool: Windows 10 vs. Windows Server, Marketplace vs. Custom images</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determine the Host Pool type to use</t>
+          <t>If a custom image will be used, determine if there is an automated build process?</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Shared/Pooled or Dedicated/Personal</t>
+          <t xml:space="preserve">If nothing exists, consider using Azure Image Builder to automate the build process. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>For Personal Host Pool type, decide on the assignment type</t>
+          <t>If a custom image will be used, is there a plan to organize and manage the lifecycle of your images?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirm that the difference between automatic and direct assignment is well understood and the selected option is appropriate for the scenario in question.</t>
+          <t>Evaluate Azure Compute Gallery.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>For Pooled Host Pool type, decide on the load balancing method</t>
+          <t>If custom image will be used, check recommended best practices for AVD on how to build master image</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check which one to use and available options, be aware that if autoscaling will be used, it sets it to breadth-first. </t>
+          <t xml:space="preserve">There are some known best practices and recommendations for the golden image customization, be sure to check the referenced article. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimate the number of different Host Pools to deploy </t>
+          <t>Evaluate the usage of Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Based on your selection criterias, how many Host Pools you would need? You should consider to have multiple ones if:? Multiple OS images? Multiple regions? Different HW required? Different Host Pool type (shared vs. personal)? Different user requirements and SLA (Top users, Execs, Office Worker vs. Developers, etc.)? Different RDP settings (applied at Host Pool level), see https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Required number of VMs in the host pool exceeding maximum capabilities</t>
+          <t xml:space="preserve">This tool-set has been created to automatically apply setting referenced in white paper 'Optimizing Windows 10, version 2004 for a Virtual Desktop Infrastructure (VDI) role': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Usage of the tool and/or optimizations mentioned in the white-paper should be considered. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Run workload performance test to determine the best Azure VM SKU and size to use (determine the number of hosts per pool)</t>
+          <t>Plan/Assess AVD Session Host configuration management strategy</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Use the link provided to set a starting point for SKU decision, then validate using a performance test. Ensure a minimum of 4 cores for Production is selected per Session Host (multi-session)</t>
+          <t>Determine if a configuration management tool is already in place to manage Host Pool VM configuration after initial deployment, For example SCCM, MEM/Intune, GPO, 3rd-party solutions.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verify AVD scalability limits for the environment</t>
+          <t>Determine if Microsoft OneDrive will be part of AVD deployment</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is critical to check AVD capacioty and limits reported in the referenced article. </t>
+          <t>Review article provided and check 'Known Folder Redirection' and 'Files OnDemand' OneDrive features should be considered and eventually adopted.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determine if  Session Hosts will require GPU</t>
+          <t>Determine if Microsoft Teams will be part of AVD deployment</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host Pools with GPU require special configuration, please be sure to review the referenced article. </t>
+          <t>Be sure to review this article and use the latest version, review and evaluate Teams exclusions to reduce profile size.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Recommended to use VM SKUs able to leverage Accelerated Networking feature in Azure.</t>
+          <t xml:space="preserve">Do not use the same storage account/share as Profile/Office containers </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Whenever is possible, it is recommended to leverage VM SKUs with Accelerated Networking feature. Today pnly Windows Server OS are supported (see list in the article), in the future Windows Client OS maybe also included. </t>
+          <t xml:space="preserve">It is highly recommended to use separate storage accounts/shares to store MSIX packages. If necessary, storage can scale out independently and not being impacted by profile I/O activities. Azure offers multiple storage options that can be used for MISX app attach. We recommend using Azure Files or Azure NetApp Files as those options offer the best value between cost and management overhead. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>An Azure Active Directory tenant must be available with at least one subscription linked</t>
+          <t>Review performance considerations for MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>An Azure subscription must be parented to the same Azure AD tenant, that contains a virtual network that either contains or is connected to the Windows Server Active Directory or Azure AD DS instance.</t>
+          <t>In the referenced article, we reported few but important performance considerations for MSIX usage in AVD context, be sure to carefully review.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>A Windows Server Active Directory forest/domain is in sync with Azure Active Directory</t>
+          <t>Check proper session host permissions for MSIX share</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>You can configure this using Azure AD Connect (for hybrid organizations) or Azure AD Domain Services (for hybrid or cloud organizations).</t>
+          <t>MSIX app attach requires read-only permissions to access the file share. If you're storing your MSIX applications in Azure Files, then for your session hosts, you'll need to assign all session host VMs both storage account role-based access control (RBAC) and file share New Technology File System (NTFS) permissions on the share.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Check User Account requirements to connect to Windows Virtual Desktop</t>
+          <t>MSIX packages for 3rd-party applications</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) The user must be sourced from the same Active Directory that's connected to Azure AD. Windows Virtual Desktop does not support B2B or MSA accounts. (2) The UPN you use to subscribe to Windows Virtual Desktop must exist in the Active Directory domain the VM is joined to.</t>
+          <t>3rd-party software vendor must provide a MSIX package, it is not recommended for customer to attempt  the conversion procedure without proper support from the application owner.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Check VM requirements for AVD Session Hosts that will be created</t>
+          <t>Disable auto-update for MSIX packages</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>VMs must be Standard domain-joined or Hybrid AD-joined. Virtual machines can't be Azure AD-joined.</t>
+          <t>MSIX app attach doesn't support auto-update for MSIX applications, then should be disabled.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before using Azure Active Directory Domain Services (AAD-DS) for AVD, be sure to review the limitations. </t>
+          <t>Review operating systems support</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Compare self-managed Active Directory Domain Services, Azure Active Directory, and managed Azure Active Directory Domain Services</t>
+          <t>In order to leverage MSIX &amp; App Attach, guest OS image for AVD Host pool must be Windows 10 Enterprise or Windows 10 Enterprise Multi-session, version 2004 or later.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Session Host</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Create at least two Active Directory Domain Controllers (DCs) in Azure VNET environment close to AVD Host Pool</t>
+          <t>Evaluate the usage of Gen2 VM for Host Pool deployment</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AD DCs in Azure are recommended to reduce latency for users logging into AVD session hosts, and eventually for Azure NetApp Files and AD integration. ADC need to be able to talk to DCs for ALL child domains. As alternative, on-premise connectivity must be used to reach AD DCs. </t>
+          <t>Once selected the VM SKU that will be used for Host Pool deployment, it is recommended to use Gen2 type of the SKU for higher security and improved capabilities.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Create a specific OU in Active Directory for each Host Pool</t>
+          <t>Determine the Host Pool type to use</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recommended to create a separate OU per Host Pool under a separate OU hierarchy. These OUs will contain machine accounts of AVD Session Hosts. </t>
+          <t>Shared/Pooled or Dedicated/Personal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Review Domain GPO that will be applied to OU and impacting Host Pool VM functionalities</t>
+          <t>For Personal Host Pool type, decide on the assignment type</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carefully review, and eventually block/filter inheritance of GPOs to the OUs containing AVD Host Pools. </t>
+          <t>Confirm that the difference between automatic and direct assignment is well understood and the selected option is appropriate for the scenario in question.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Create a dedicated user account with only permissions to join VM to the domain</t>
+          <t>For Pooled Host Pool type, decide on the load balancing method</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recommended to have a specific dedicated account with specific permissions, and without the default 10 joins limitation. </t>
+          <t xml:space="preserve">Check which one to use and available options, be aware that if autoscaling will be used, it sets it to breadth-first. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Create a domain user group for each set of users that will be granted access to each Host Pool Application Group (DAG or RAG)</t>
+          <t xml:space="preserve">Estimate the number of different Host Pools to deploy </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avoid granting access per user, instead use AD groups and replicate them using ADC in Azure AD. </t>
+          <t>Based on your selection criteria, how many Host Pools you would need? You should consider to have multiple ones if:? Multiple OS images? Multiple regions? Different HW required? Different Host Pool type (shared vs. personal)? Different user requirements and SLA (Top users, Execs, Office Worker vs. Developers, etc.)? Different RDP settings (applied at Host Pool level), see https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Required number of VMs in the host pool exceeding maximum capabilities</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Review your organization password expiration policy for accounts used by Azure Files AD integration</t>
+          <t>Run workload performance test to determine the best Azure VM SKU and size to use (determine the number of hosts per pool)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>As part of the procedure to integrate Azure File Share and Active Directory authenticaton, an AD account to represent the storage account (file share) will be created. You can choose to register as a computer account or service logon account, see FAQ for details. For computer accounts, there is a default password expiration age set in AD at 30 days. Similarly, the service logon account may have a default password expiration age set on the AD domain or Organizational Unit (OU). For both account types, we recommend you check the password expiration age configured in your AD environment and plan to update the password of your storage account identity of the AD account before the maximum password age. You can consider creating a new AD Organizational Unit (OU) in AD and disabling password expiration policy on computer accounts or service logon accounts accordingly.</t>
+          <t>Use the link provided to set a starting point for SKU decision, then validate using a performance test. Ensure a minimum of 4 cores for Production is selected per Session Host (multi-session)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Review hybrid connectivity architecture for on-premises environment</t>
+          <t>Verify AVD scalability limits for the environment</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Which type of hybrid connectivity? Express Route, VPN, NVA?</t>
+          <t xml:space="preserve">It is critical to check AVD capacity and limits reported in the referenced article. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Assess which resources users will need to access from AVD Host Pools to on-premises</t>
+          <t>Determine if  Session Hosts will require GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluate the bandwidth requirements, ensure VPN/ER bandwidth will be enough, and latency tolerable. </t>
+          <t xml:space="preserve">Host Pools with GPU require special configuration, please be sure to review the referenced article. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Review landing zone networking topology for AVD service</t>
+          <t>Recommended to use VM SKUs able to leverage Accelerated Networking feature in Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Review or recommend a new one where to place AVD Host Pools based on CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Whenever is possible, it is recommended to leverage VM SKUs with Accelerated Networking feature. Today pnly Windows Server OS are supported (see list in the article), in the future Windows Client OS maybe also included. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Assess VNET and subnet placement for multiple Host Pools</t>
+          <t>Assess how many users will connect to AVD and from which regions</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure each subnet will have enough space to scale the AVD Host Pool. For different Host Pools, it is recommended to use separate subnets  if possible. </t>
+          <t xml:space="preserve">For proper planning and and deployment, it is important to asses the maximum number of users and average concurrent sessions. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Need to control/restrict Internet outbound traffic for AVD hosts? </t>
+          <t>Determine if all users will have the same set of applications and/or different Host Pool configurations and/or OS images</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Several options are available. You can use Azure Firewall or NVA Firewall, NSG and/or Proxy. NSG is not able to enable/disable by URL, only ports and protocols.Proxy should be used only as explicit setting in user browser. Details on using Azure Firewall Premium with AVD are here on https://aka.ms/AVDfirewall and here https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Be sure to review full list of requirements for AVD URLs access.</t>
+          <t xml:space="preserve">Multiple Host Pools maybe required to support different set of users, it is recommended to estimate how many will be necessary. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Need to control/restrict Internet outbound traffic only for users on AVD hosts? </t>
+          <t>Assess external dependencies for each Host Pool</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation, see the Security section for more details. </t>
+          <t>The dependencies on resources external to the AVD pool should be assessed and reviewed, for example Active Directory, external file shares or other storage, on-premises services and resources, network infrastructure components like VPN and or Express Route, external services and 3rd-party components. For all these resources, latency from the AVD Host Pool needs to be evaluated and connectivity considered. Additionally, BCDR considerations need to be applied to these dependencies as well.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Review UDR for AVD Host Pool subnet</t>
+          <t>Review client OS used and AVD client type</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Custom UDR can be applied to AVD Host Pool subnet, for example to redirect to Azure Firewall or NVA. In this case is recommended to carefully review to ensure optimal path for outbound traffic to AVD control plane is used. Service Tags can now be used with UDR, then AVD management plane traffic can be easily whitelisted. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Review limitations of each client and compare multiple options when possible.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Ensure AVD control plane endpoints are accessible</t>
+          <t>Check licensing requirements</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Required URLs for AVD control plane access by session hosts are documented here: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. A check tool is available to verify connectivity from the session hosts: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Customers who are properly licensed to run Windows Virtual Desktop workloads are eligible to apply a Windows license to their session host virtual machines and run them without paying for another license.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Check the network bandwidth required for each user and in total for the VM SKU</t>
+          <t>Run a PoC to test end-to-end user experience to verify impact caused by network latency</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is recommended to assess and review networking bandwidth requirements for users, based on the specific workload type. The referenced article provide general estimations and recommendations, but specific measure are required for proper sizing. </t>
+          <t xml:space="preserve">Depending on the user locations, and AVD region deployment, users may have a non-optimal experience, hence is important to test as soon as possible in a small PoC environment. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Session Host</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Gen2 VM for Host Pool deployment</t>
+          <t xml:space="preserve">Determine if users will access AVD using full desktops and/or remote applications </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Once selected the VM SKU that will be used for Host Pool deployment, it is recommended to use Gen2 type of the SKU for higher security and improved capabilities.</t>
+          <t xml:space="preserve">Determine if users will be offered full desktops and/or Remote Application Groups. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determine how applications will be deployed in AVD Host Pools</t>
+          <t xml:space="preserve">All users will have the same RDP settings? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Applications can be preinstalled in the golden image/s, can be attached using MSIX &amp; AppAttach feature or distributing to hosts after pool deployment using traditional SW distribution methods.</t>
+          <t>RDP settings can currently only be configured at the host pool level, not per user / group.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estimate the number of golden images that will be required</t>
+          <t>Evaluate RDP ShortPath for clients connecting from managed internal networks</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Will they use fslogix application masking which would lend itself to a single image, or multi images with different applications baked in: what is necessitating more than one image to be used?</t>
+          <t>RDP Shortpath for managed networks is a feature of Azure Virtual Desktop that establishes a direct UDP-based transport between Remote Desktop Client and Session host. The removal of extra relay reduces the round-trip time, which improves user experience with latency-sensitive applications and input methods. To support RDP Shortpath, the Azure Virtual Desktop client needs a direct line of sight to the session host, and must be running either Windows 10 or Windows 7 and have the Windows Desktop client installed.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determine which OS image/s you will use for Host Pool deployment</t>
+          <t>Determine in which Azure region/s AVD Host Pools will be deployed.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determine which Guest OS will be used to deploy each Host Pool: Windows 10 vs. Windows Server, Marketplace vs. Custom images</t>
+          <t>AVD is a non-regional service, Host Pools can be created in any region, automatic redirection from closest front-end will happen automatically.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>If a custom image will be used, determine if there is an automated build process?</t>
+          <t>Determine if hybrid connectivity is required to connect to on-premises environment</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If nothing exists, consider using Azure Image Builder to automate the build process. </t>
+          <t xml:space="preserve">If required to connect to on-premises environment, assess the current connectivity option or plan for the required connectivity. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>If a custom image will be used, is there a plan to organise and manage the lifecycle of your images?</t>
+          <t>Did you evaluate latency between users location and Azure AVD infrastructure?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evaluate Azure Compute Gallery.</t>
+          <t xml:space="preserve">Run the 'Windows Virtual Desktop Experience Estimator' tool to select the best Azure region to deploy Host Pools. Beyond 150ms latency, user experience may be not optimal. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>If custom image will be used, check recommended best practices for AVD on how to build master image</t>
+          <t>Determine metadata location for AVD service</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are some known best practices and recommendations for the golden image customization, be sure to check the referenced article. </t>
+          <t xml:space="preserve">AVD store metadata only to run the service in specific geographic locations, determine what is available today and if suitable based on customer requirements. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Virtual-Desktop-Optimization-Tool</t>
+          <t>Check Azure quotas and availability for specific VM sizes in the selected regions</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">This tool-set has been created to automatically apply setting referenced in white paper 'Optimizing Windows 10, version 2004 for a Virtual Desktop Infrastructure (VDI) role': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Usage of the tool and/or optimizations mentioned in the white-paper should be considered. </t>
+          <t xml:space="preserve">Check for specific VM SKUs, especially if you need GPU or high-specs SKUs, and eventually Azure NetApp Files availability if used. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Plan/Assess AVD Session Host configuration management strategy</t>
+          <t>Check for Availability Zone (AZ) availability in the selected region</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine if a configuration management tool is already in place to manage Host Pool VM configuration after initial deployment, For example SCCM, MEM/Intune, GPO, 3rd-party solutions.</t>
+          <t>See BCDR section for more details.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determine if Microsoft OneDrive will be part of AVD deployment</t>
+          <t>Create at least two Active Directory Domain Controllers (DCs) in Azure VNET environment close to AVD Host Pool</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Review article provided and check 'Known Folder Redirection' and 'Files OnDemand' OneDrive features should be considered and eventually adopted.</t>
+          <t xml:space="preserve">AD DCs in Azure are recommended to reduce latency for users logging into AVD session hosts, and eventually for Azure NetApp Files and AD integration. ADC need to be able to talk to DCs for ALL child domains. As alternative, on-premise connectivity must be used to reach AD DCs. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determine if Microsoft Teams will be part of AVD deployment</t>
+          <t>Create a specific OU in Active Directory for each Host Pool</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Be sure to review this article and use the latest version, review and evaluate Teams exclusions to reduce profile size.</t>
+          <t xml:space="preserve">Recommended to create a separate OU per Host Pool under a separate OU hierarchy. These OUs will contain machine accounts of AVD Session Hosts. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Do not use the same storage account/share as Profile/Office containers </t>
+          <t>Review Domain GPO that will be applied to OU and impacting Host Pool VM functionalities</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is highly recommended to use separate storage accounts/shares to store MSIX packages. If necessary, storage can scale out independently and not being impacted by profile I/O activities. Azure offers multiple storage options that can be used for MISX app attach. We recommend using Azure Files or Azure NetApp Files as those options offer the best value between cost and management overhead. </t>
+          <t xml:space="preserve">Carefully review, and eventually block/filter inheritance of GPOs to the OUs containing AVD Host Pools. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Review performance considerations for MSIX</t>
+          <t>Create a dedicated user account with only permissions to join VM to the domain</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>In the referenced article, we reported few but important performance considerations for MSIX usage in AVD context, be sure to carefully review.</t>
+          <t xml:space="preserve">Recommended to have a specific dedicated account with specific permissions, and without the default 10 joins limitation. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Check proper session host permissions for MSIX share</t>
+          <t>Create a domain user group for each set of users that will be granted access to each Host Pool Application Group (DAG or RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MSIX app attach requires read-only permissions to access the file share. If you're storing your MSIX applications in Azure Files, then for your session hosts, you'll need to assign all session host VMs both storage account role-based access control (RBAC) and file share New Technology File System (NTFS) permissions on the share.</t>
+          <t xml:space="preserve">Avoid granting access per user, instead use AD groups and replicate them using ADC in Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>MSIX packages for 3rd-party applications</t>
+          <t>Review your organization password expiration policy for accounts used by Azure Files AD integration</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>3rd-party software vendor must provide a MSIX package, it is not recommended for customer to attempt  the conversion procedure without proper support from the application owner.</t>
+          <t>As part of the procedure to integrate Azure File Share and Active Directory authentication, an AD account to represent the storage account (file share) will be created. You can choose to register as a computer account or service logon account, see FAQ for details. For computer accounts, there is a default password expiration age set in AD at 30 days. Similarly, the service logon account may have a default password expiration age set on the AD domain or Organizational Unit (OU). For both account types, we recommend you check the password expiration age configured in your AD environment and plan to update the password of your storage account identity of the AD account before the maximum password age. You can consider creating a new AD Organizational Unit (OU) in AD and disabling password expiration policy on computer accounts or service logon accounts accordingly.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Disable auto-update for MSIX packages</t>
+          <t>An Azure Active Directory tenant must be available with at least one subscription linked</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>MSIX app attach doesn't support auto-update for MSIX applications, then should be disabled.</t>
+          <t>An Azure subscription must be parented to the same Azure AD tenant, that contains a virtual network that either contains or is connected to the Windows Server Active Directory or Azure AD DS instance.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Review operating systems support</t>
+          <t>A Windows Server Active Directory forest/domain is in sync with Azure Active Directory</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>In order to leverage MSIX &amp; App Attach, guest OS image for AVD Host pool must be Windows 10 Enterprise or Windows 10 Enterprise Multi-session, version 2004 or later.</t>
+          <t>You can configure this using Azure AD Connect (for hybrid organizations) or Azure AD Domain Services (for hybrid or cloud organizations).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Session Host </t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine which type of managed disk will be used for the Session Hosts  </t>
+          <t>Check User Account requirements to connect to Windows Virtual Desktop</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Standard HDD, Standard SSD, or Premium SSD, Ephemeral disks are not supported, Ultra-Disks not recommended. Recommended to evaluate Premium for OS disk if user density is not low, and if you are going to use Cloud Cache. </t>
+          <t>(1) The user must be sourced from the same Active Directory that's connected to Azure AD. Windows Virtual Desktop does not support B2B or MSA accounts. (2) The UPN you use to subscribe to Windows Virtual Desktop must exist in the Active Directory domain the VM is joined to.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determine which storage backend solution will be used for FSLogix Profile and Office Containers</t>
+          <t>Check VM requirements for AVD Session Hosts that will be created</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, VM based File Server. File-server not recommended. Azure Files Premium typically a good starting point. NetApp only usually required for large scale / high-performant environment. </t>
+          <t>VMs must be Standard domain-joined or Hybrid AD-joined. Virtual machines can't be Azure AD-joined.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the possibility to separate Profile Containers from Office Containers</t>
+          <t xml:space="preserve">Before using Azure Active Directory Domain Services (AAD-DS) for AVD, be sure to review the limitations. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The recommendation in Windows Virtual Desktop is to use Profile Container without Office Container unless you are planning for specific Business Continuity and Disaster Recovery (BCDR) scenarios as described in the Disaster Recovery section below. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Compare self-managed Active Directory Domain Services, Azure Active Directory, and managed Azure Active Directory Domain Services</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Verify storage scalability limits to support Host Pool requirements</t>
+          <t>Assess the requirement for host pool auto-scaling capability</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>As a starting point for estimating profile container storage performance requirements we recommend to assume 10 IOPS per user in the steady state and 50 IOPS per user during sign-in/sign-out.</t>
+          <t xml:space="preserve">The scaling tool provides a low-cost automation option for customers who want to optimize their session host VM costs. You can use the scaling tool to schedule VMs to start and stop based on Peak and Off-Peak business hours, scale out VMs based on number of sessions per CPU core, scale in VMs during Off-Peak hours, leaving the minimum number of session host VMs running. Not available yet for Personal Host Pool type, recommended to have a separate setup for each host pool. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>If NetApp Files storage is used, check storage service availability in your specific region.</t>
+          <t>Periodically check Azure Advisor recommendations for AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>If a second region is required for DR purposes verify NetApp availability there as well.</t>
+          <t>Azure Advisor analyzes your configurations and telemetry to offer personalized recommendations to solve common problems. With these recommendations, you can optimize your Azure resources for reliability, security, operational excellence, performance, and cost.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>For optimal performance, the storage solution and the FSLogix profile container should be in the same data-center location.</t>
+          <t>Plan for a golden image update management strategy</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Avoid introducing additional latency and costs associated with cross-region network traffic where possible.</t>
+          <t>Prepare a strategy to manage updates to golden images, for example to apply security hotfixes and/or update applications installed inside the image. Azure Image Builder Service is a 1st party solution for automating the build and customization of VMs. ARM templates can be used to create new hosts, then decommission the old ones: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Recommended approach is to create a new pool side-by-side, easier to rollback, not usable for dedicated poolRe-deploy and increase the number of VMs with the ARM template is also a viable option. Customers may also want to use existing software distribution methods to update image without re-deploy, for example with SCCM or similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure the recommended antivirus exclusions for FSLogix (includes not scanning VHD(x) files on connect).</t>
+          <t>Plan for a Session Host patching and update strategy</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Make sure to configure the following antivirus exclusions for FSLogix Profile Container virtual hard drives, as documented in the referenced article.</t>
+          <t xml:space="preserve">Customers can have several options:- Microsoft Endpoint Configuration Manager, this article explains how to configure Microsoft Endpoint Configuration Manager to automatically apply updates to a Windows Virtual Desktop host running Windows 10 Enterprise multi-session: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- 3rd Party that supports you OS.- Azure Update Management (Azure Automation), today not supported for client OS: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt is recommended to move away from a patching strategy and move to a re-imaging strategy if possible. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Review FSLogix registry keys and determine which ones to apply</t>
+          <t>Assess the requirement for a AVD test canary environment</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Default basic and recommended settings are here: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises See here for core set: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee here for complete reference: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Host pools are a collection of one or more identical virtual machines within Windows Virtual Desktop environment. We highly recommend you create a validation host pool where service updates are applied first. This allows you to monitor service updates before the service applies them to your standard or non-validation environment.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Check usage of concurrent or multiple connections to the same profile</t>
+          <t>Determine Host Pool deployment strategy</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Concurrent or multiple connections are discouraged in Windows Virtual Desktop. The best practice is to create a different profile location for each session (as a host pool).</t>
+          <t>A AVD Host Pool can be deployed in several ways: Azure Portal, ARM templates, Azure CLI tool, Powershell, manual VM creation with registration token, Terraform, etc. It is important to adopt proper method/s to support automatic deployment through automation and CI/CD tools.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Review best practices and key considerations for storage sizing</t>
+          <t>Turn on VMs regularly every 90 days for token refresh</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As a general estimation, to be validated in a test environment, for each user 5 - 15 IOPS should be first considered, depending on the workload. Azure Files: Premium max 100k IOPS per share (max 100TB) and up to 5Gbps with 3ms latency. Be aware of how Azure Files is provisioned, that is IOPS strictly tied t'o provisioned SIZE. Burst sizing capability in some cases. Be sure to provision UPFRONT more space than required to be sure to have enough IOPS. NOTE: Azure Premium maybe cheaper than Standard because you don't pay transactions, then important detail to keep in mind.Azure NetApp Files: remember max 1000 IPs connected, can adjust IOPS on the fly, minimum 4TB provisioned capacity. </t>
+          <t>After you register a VM to a host pool within the Windows Virtual Desktop service, the agent regularly refreshes the VM's token whenever the VM is active. The certificate for the registration token is valid for 90 days. Because of this 90-day limit, we recommend VMs to be online for 20 minutes every 90 days so that the machine can refresh its tokens and update the agent and side-by-side stack components.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Check best-practices for Azure Files (if used)</t>
+          <t>Enable Azure Monitoring for AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
+          <t>Azure Monitor for Windows Virtual Desktop is a dashboard built on Azure Monitor Workbooks that helps IT professionals understand their Windows Virtual Desktop environments. Read the referenced article to learn how to set up Azure Monitor for Windows Virtual Desktop to monitor your Windows Virtual Desktop environments.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Check best-practices for NetApp Files (if used)</t>
+          <t>Enable and redirect diagnostic settings for Workspaces, Host Pools, Application Groups and Host VMs to Log Analytics workspace</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
+          <t xml:space="preserve">Windows Virtual Desktop uses Azure Monitor and Log Analytics for monitoring and alerts like many other Azure services. This lets admins identify issues through a single interface. The service creates activity logs for both user and administrative actions.  Each activity log falls under the following categories: Management, Feed, Connections, Host Registration, Errors, Checkpoints. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Review and confirm configured maximum profile size in FSLogix</t>
+          <t>Create alerts on the profile storage to be alerted in case of high usage and throttling</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Profile containers have a default max size of 30GB. If large Profile Containers are anticipated, and customers wants to try to keep them small, consider using OneDrive to host Office 365 files outside the FSLogix profile.</t>
+          <t xml:space="preserve">See the referenced article and this additional one to setup proper monitoring and alerting for storage: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>If FSLogix Cloud Cache is used, move the Cache directory to temporary drive.</t>
+          <t xml:space="preserve">Configure Azure Service Health for AVD alerts </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache uses local disk as cache and may generate lot of pressure on the VM disk. Recommended to leverage the power of temporary (and locally attached) VM disk, if possible based on the VM SKU. </t>
+          <t>You can use Azure Service Health to monitor service issues and health advisories for Windows Virtual Desktop. Azure Service Health can notify you with different types of alerts (for example, email or SMS), help you understand the effect of an issue, and keep you updated as the issue resolves.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Review the usage of FSLogix redirection.</t>
+          <t>Review hybrid connectivity architecture for on-premises environment</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML file is used to control what folders are redirected out of the profile container to the C: drive. Exclusions should be the exception and should never be used unless the specific exclusion is completely understood by the person configuring the exclusion. Exclusions should always be fully tested in the environment where they are intended to be implemented. Configuring exclusions may impact functionality, stability and performance.</t>
+          <t>Which type of hybrid connectivity? Express Route, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>If Azure NetApp Files storage is used, check AD Site name setting in the AD Connection.</t>
+          <t>Assess which resources users will need to access from AVD Host Pools to on-premises</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>An Active Directory Site should be created for the Azure virtual network environment where ANF subnet will be created, and that site name should be specified in the ANF connection property when executing the join procedure as explained in the reference article.</t>
+          <t xml:space="preserve">Evaluate the bandwidth requirements, ensure VPN/ER bandwidth will be enough, and latency tolerable. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure AVD users will not have local admin privileges on AVD Hosts. </t>
+          <t>Review landing zone networking topology for AVD service</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>We recommend you don't grant your users admin access to virtual desktops. If you need software packages, we recommend you make them available through configuration management utilities like Microsoft Endpoint Manager. In a multi-session environment, we recommend you don't let users install software directly.</t>
+          <t>Review or recommend a new one where to place AVD Host Pools based on CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Ensure anti-virus and anti-malware solution is used</t>
+          <t>Assess VNET and subnet placement for multiple Host Pools</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint now supports Windows Virtual Desktop for Windows 10 Enterprise multi-session.Check article for onboarding non-persistent virtual desktop infrastructure (VDI) devices: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Ensure each subnet will have enough space to scale the AVD Host Pool. For different Host Pools, it is recommended to use separate subnets  if possible. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Ensure proper AV exclusions are in place</t>
+          <t xml:space="preserve">Need to control/restrict Internet outbound traffic for AVD hosts? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Be sure the following exclusions are in place: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Several options are available. You can use Azure Firewall or NVA Firewall, NSG and/or Proxy. NSG is not able to enable/disable by URL, only ports and protocols.Proxy should be used only as explicit setting in user browser. Details on using Azure Firewall Premium with AVD are here on https://aka.ms/AVDfirewall and here https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Be sure to review full list of requirements for AVD URLs access.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Assess disk encryption requirements for AVD Hosts</t>
+          <t xml:space="preserve">Need to control/restrict Internet outbound traffic only for users on AVD hosts? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Disks in Azure are already encrypted at rest by default with Microsoft managed keys.Host VM OS disk encryption is possible and supported using ADE and DES: sensible and peristent user data should not be storedf on the Session Host disk, then it should be used only if strictly required for compliance reason. Encryption of FSLogix storage using Azure Files can be done using SSE on Azure Storage.For OneDrive encryption, see this article: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation, see the Security section for more details. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Need to control/restrict user Internet navigation from AVD session hosts?</t>
+          <t>Review UDR for AVD Host Pool subnet</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation. </t>
+          <t xml:space="preserve">Custom UDR can be applied to AVD Host Pool subnet, for example to redirect to Azure Firewall or NVA. In this case is recommended to carefully review to ensure optimal path for outbound traffic to AVD control plane is used. Service Tags can now be used with UDR, then AVD management plane traffic can be easily whitelisted. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Azure Security Center (ASC) for AVD Session Hosts</t>
+          <t>Ensure AVD control plane endpoints are accessible</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>We recommend you enable Azure Security Center Standard for subscriptions, virtual machines, key vaults, and storage accounts.With Azure Security Center Standard is possible to assess and manage vulnerabilities, assess compliance with common frameworks like PCI, strengthen the overall security of your AVD environment.</t>
+          <t>Required URLs for AVD control plane access by session hosts are documented here: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. A check tool is available to verify connectivity from the session hosts: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Review Active Directory GPOs to secure RDP sessions</t>
+          <t>Check the network bandwidth required for each user and in total for the VM SKU</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Should be used, for example to impose desktop lockout and idle session termination. Existing GPOs applied to on-premises environment should be reviewed and eventually applied to secure also AVD Hosts. </t>
+          <t xml:space="preserve">It is recommended to assess and review networking bandwidth requirements for users, based on the specific workload type. The referenced article provide general estimations and recommendations, but specific measure are required for proper sizing. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of MFA for AVD users</t>
+          <t xml:space="preserve">Ensure AVD users will not have local admin privileges on AVD Hosts. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>For additional details and insights, see this article: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>We recommend you don't grant your users admin access to virtual desktops. If you need software packages, we recommend you make them available through configuration management utilities like Microsoft Endpoint Manager. In a multi-session environment, we recommend you don't let users install software directly.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Conditional Access for users</t>
+          <t>Ensure anti-virus and anti-malware solution is used</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>Enabling Conditional Access lets you manage risks before you grant users access to your Windows Virtual Desktop environment. When deciding which users to grant access to, we recommend you also consider who the user is, how they sign in, and which device they're using.</t>
+          <t>Microsoft Defender for Endpoint now supports Windows Virtual Desktop for Windows 10 Enterprise multi-session.Check article for onboarding non-persistent virtual desktop infrastructure (VDI) devices: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Enable diagnostic and audit logging to central Log Analytics workspace</t>
+          <t>Ensure proper AV exclusions are in place</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enabling audit log collection lets you view user and admin activity related to Windows Virtual Desktop. This is also a requirement to eanble and use AVD Monitoring tool. Highly recommended to enable. </t>
+          <t>Be sure the following exclusions are in place: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assess the requirement to use custom RBAC roles for AVD management </t>
+          <t>Assess disk encryption requirements for AVD Hosts</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD uses Azure role-based access controls (RBAC) to assign roles to users and admins. These roles give admins permission to carry out certain tasks. If separation of duties is required, Windows Virtual Desktop has additional roles that let you separate management roles for host pools, app groups, and workspaces. This separation lets you have more granular control over administrative tasks. These roles are named in compliance with Azure's standard roles and least-privilege methodology.</t>
+          <t>Disks in Azure are already encrypted at rest by default with Microsoft managed keys.Host VM OS disk encryption is possible and supported using ADE and DES: sensible and persistent user data should not be stored on the Session Host disk, then it should be used only if strictly required for compliance reason. Encryption of FSLogix storage using Azure Files can be done using SSE on Azure Storage.For OneDrive encryption, see this article: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Review all security best practices for AVD environment</t>
+          <t>Need to control/restrict user Internet navigation from AVD session hosts?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A comprehensive set of security best practices and recommendations are contained in the referenced article, it is recommended to review. </t>
+          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Enable Azure Monitoring for AVD</t>
+          <t>Evaluate the usage of Azure Security Center (ASC) for AVD Session Hosts</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Windows Virtual Desktop is a dashboard built on Azure Monitor Workbooks that helps IT professionals understand their Windows Virtual Desktop environments. Read the referenced article to learn how to set up Azure Monitor for Windows Virtual Desktop to monitor your Windows Virtual Desktop environments.</t>
+          <t>We recommend you enable Azure Security Center Standard for subscriptions, virtual machines, key vaults, and storage accounts.With Azure Security Center Standard is possible to assess and manage vulnerabilities, assess compliance with common frameworks like PCI, strengthen the overall security of your AVD environment.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Enable and redirect diagnostic settings for Workspaces, Host Pools, Application Groups and Host VMs to Log Analytics workspace</t>
+          <t>Review Active Directory GPOs to secure RDP sessions</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows Virtual Desktop uses Azure Monitor and Log Analytics for monitoring and alerts like many other Azure services. This lets admins identify issues through a single interface. The service creates activity logs for both user and administrative actions.  Each activity log falls under the following categories: Management, Feed, Connections, Host Registration, Errors, Checkpoints. </t>
+          <t xml:space="preserve">Should be used, for example to impose desktop lockout and idle session termination. Existing GPOs applied to on-premises environment should be reviewed and eventually applied to secure also AVD Hosts. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Create alerts on the profile storage to be alerted in case of high usage and throttling</t>
+          <t>Evaluate the usage of MFA for AVD users</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">See the referenced article and this additional one to setup proper monitoring and alerting for storage: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>For additional details and insights, see this article: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configure Azure Service Health for AVD alerts </t>
+          <t>Evaluate the usage of Conditional Access for users</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>You can use Azure Service Health to monitor service issues and health advisories for Windows Virtual Desktop. Azure Service Health can notify you with different types of alerts (for example, email or SMS), help you understand the effect of an issue, and keep you updated as the issue resolves.</t>
+          <t>Enabling Conditional Access lets you manage risks before you grant users access to your Windows Virtual Desktop environment. When deciding which users to grant access to, we recommend you also consider who the user is, how they sign in, and which device they're using.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement for host pool auto-scaling capability</t>
+          <t>Enable diagnostic and audit logging to central Log Analytics workspace</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The scaling tool provides a low-cost automation option for customers who want to optimize their session host VM costs. You can use the scaling tool to schedule VMs to start and stop based on Peak and Off-Peak business hours, scale out VMs based on number of sessions per CPU core, scale in VMs during Off-Peak hours, leaving the minimum number of session host VMs running. Not available yet for Personal Host Pool type, recommended to have a separate setup for each host pool. </t>
+          <t xml:space="preserve">Enabling audit log collection lets you view user and admin activity related to Windows Virtual Desktop. This is also a requirement to enable and use AVD Monitoring tool. Highly recommended to enable. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Periodically check Azure Advisor recommendations for AVD</t>
+          <t xml:space="preserve">Assess the requirement to use custom RBAC roles for AVD management </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor analyzes your configurations and telemetry to offer personalized recommendations to solve common problems. With these recommendations, you can optimize your Azure resources for reliability, security, operational excellence, performance, and cost.</t>
+          <t>AVD uses Azure role-based access controls (RBAC) to assign roles to users and admins. These roles give admins permission to carry out certain tasks. If separation of duties is required, Windows Virtual Desktop has additional roles that let you separate management roles for host pools, app groups, and workspaces. This separation lets you have more granular control over administrative tasks. These roles are named in compliance with Azure's standard roles and least-privilege methodology.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Plan for a golden image update management strategy</t>
+          <t>Review all security best practices for AVD environment</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare a strategy to manage updates to golden images, for example to apply security hotfixes and/or update applications installed inside the image. Azure Image Builder Service is a 1st party solution for automating the build and customisation of VMs.ARM templates can be used to create new hosts, then decommission the old ones: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Recommended approach is to create a new pool side-by-side, easier to rollback, not usable for dedicated poolRe-deploy and increase the number of VMs with the ARM template is also a viable option. Customers may also want to use existing software distribution methods to update image without re-deploy, for exampel with SCCM or similar.</t>
+          <t xml:space="preserve">A comprehensive set of security best practices and recommendations are contained in the referenced article, it is recommended to review. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Plan for a Session Host patching and update strategy</t>
+          <t>Determine which storage backend solution will be used for FSLogix Profile and Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customers can have several options:- Microsoft Endpoint Configuration Manager, this article explains how to configure Microsoft Endpoint Configuration Manager to automatically apply updates to a Windows Virtual Desktop host running Windows 10 Enterprise multi-session: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- 3rd Party that supports you OS.- Azure Update Management (Azure Automation), today not supported for client OS: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt is recommended to move away from a patching strategy and move to a re-imaging strategy if possible. </t>
+          <t xml:space="preserve">Azure NetApp Files, Azure Files, VM based File Server. File-server not recommended. Azure Files Premium typically a good starting point. NetApp only usually required for large scale / high-performant environment. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement for a AVD test canary environment</t>
+          <t>Evaluate the possibility to separate Profile Containers from Office Containers</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Host pools are a collection of one or more identical virtual machines within Windows Virtual Desktop environment. We highly recommend you create a validation host pool where service updates are applied first. This allows you to monitor service updates before the service applies them to your standard or non-validation environment.</t>
+          <t xml:space="preserve">The recommendation in Windows Virtual Desktop is to use Profile Container without Office Container unless you are planning for specific Business Continuity and Disaster Recovery (BCDR) scenarios as described in the Disaster Recovery section below. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determine Host Pool deployment strategy</t>
+          <t>Verify storage scalability limits to support Host Pool requirements</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>A AVD Host Pool can be deployed in several ways: Azure Portal, ARM templates, Azure CLI tool, Powershell, manual VM creation with registration token, Terraform, etc. It is important to adopt proper method/s to support automatic deployment through automation and CI/CD tools.</t>
+          <t>As a starting point for estimating profile container storage performance requirements we recommend to assume 10 IOPS per user in the steady state and 50 IOPS per user during sign-in/sign-out.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Turn on VMs regulary every 90 days for token refresh</t>
+          <t>If NetApp Files storage is used, check storage service availability in your specific region.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>After you register a VM to a host pool within the Windows Virtual Desktop service, the agent regularly refreshes the VM's token whenever the VM is active. The certificate for the registration token is valid for 90 days. Because of this 90-day limit, we recommend VMs to be online for 20 minutes every 90 days so that the machine can refresh its tokens and update the agent and side-by-side stack components.</t>
+          <t>If a second region is required for DR purposes verify NetApp availability there as well.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determine the expected High Availability SLA for applications/desktops published through AVD</t>
+          <t>For optimal performance, the storage solution and the FSLogix profile container should be in the same data-center location.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD control plan does not offer a financially backed service level agreement. We strive to attain at least 99.9% availability for the Windows Virtual Desktop service URLs. The availability of the session host virtual machines in your subscription is covered by the Virtual Machines SLA. Dependent resources/services and infrastructure availability must be also considered to properly satisfy global high-availability requirements. </t>
+          <t>Avoid introducing additional latency and costs associated with cross-region network traffic where possible.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Assess Geo Disaster Recovery region for AVD Host Pools</t>
+          <t>Configure the recommended antivirus exclusions for FSLogix (includes not scanning VHD(x) files on connect).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>Active-Active' model can be achieved with multiple host pools in different regions. A single Host Pool with VMs from different regions is not recommended.If multiple pools for same users will be used, the problem of how to synchronize/replicate user profiles must be solved. FSLogix Cloud Cache could be used, but need to be carefully reviewed and planned, or customers can decide to do not synchronize/replicate at all. 'Active-Passive' can be achieved using Azure Site Recovery (ASR) or on-demand Pool deployment with automated mechanism.</t>
+          <t>Make sure to configure the following antivirus exclusions for FSLogix Profile Container virtual hard drives, as documented in the referenced article.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Separate critical applications in different AVD Host Pools</t>
+          <t>Review FSLogix registry keys and determine which ones to apply</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Before approaching Windows Virtual Desktop BCDR planning and design, it is important to initially consider which applications are consumed through AVD are critical. You may want to separate them from non-critical apps and use a separate Host Pool with a different disaster recovery approach and capabilities.</t>
+          <t xml:space="preserve">Default basic and recommended settings are here: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises See here for core set: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee here for complete reference: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Plan the best resiliency option for AVD Host Pool deployment</t>
+          <t>Check usage of concurrent or multiple connections to the same profile</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? Did you select the proper resiliency level for your Host Pool VMs (Availability Set vs. Availability Zones)?? Are you aware of implications on HA SLA and scalability limits that come with AS or AZ? ? You can currently deploy 399 VMs per Windows Virtual Desktop ARM template deployment without Availability Sets, or 200 VMs per Availability Set.? You can increase the number of VMs per deployment by switching off Availability Sets in either the ARM template or the Azure portal host pool enrollment.Deploying AZ is now possible, one AZ at time at the moment, need to manually create a fraction of VMs in each desired AZ. </t>
+          <t>Concurrent or multiple connections are discouraged in Windows Virtual Desktop. The best practice is to create a different profile location for each session (as a host pool).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement to backup AVD Session Hosts</t>
+          <t>Review best practices and key considerations for storage sizing</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Backup can be used also to protect Host Pool VMs, this practice is supported, even if Host Pool VMs should be stateless. This option could be considered for Personal Host Pools. </t>
+          <t xml:space="preserve">As a general estimation, to be validated in a test environment, for each user 5 - 15 IOPS should be first considered, depending on the workload. Azure Files: Premium max 100k IOPS per share (max 100TB) and up to 5Gbps with 3ms latency. Be aware of how Azure Files is provisioned, that is IOPS strictly tied t'o provisioned SIZE. Burst sizing capability in some cases. Be sure to provision UPFRONT more space than required to be sure to have enough IOPS. NOTE: Azure Premium maybe cheaper than Standard because you don't pay transactions, then important detail to keep in mind.Azure NetApp Files: remember max 1000 IPs connected, can adjust IOPS on the fly, minimum 4TB provisioned capacity. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Assess which data need to be protected inside the Profile and Office Containers</t>
+          <t>Check best-practices for Azure Files (if used)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not all data inside FSLogix user profiles may deserve protection from disaster. Additionally, if external storage is used, for example OneDrive or File Servers/Shares, what is remaining in the FSLogix profile is minimal and could be lost in some extreme circumstances. In other cases, data inside the profile can be rebuilt from other storages (for example Outlook Inbox in cached mode). </t>
+          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Build a backup protection strategy for Profile and Office Containers</t>
+          <t>Check best-practices for NetApp Files (if used)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Preventing data loss for critical user data is important, first step is to assess which data need to be saved and protected. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary. Appropriate mechanism must be considered to provide protection for critical user data. Azure Backup service can be used to protect Profile and Office Containers data when stored on Azure Files Standard and Premium tiers. Azure NetApp Files Snapshots and Policies can be used for Azure NetApp Files (all tiers).</t>
+          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Assess Profile Container storage replication requirements and resiliency for BCDR purpose</t>
+          <t>Review and confirm configured maximum profile size in FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>In AVD, multiple replication mechanisms and strategies can be used for user data residing in FSLogix containers:? Profile Pattern #1: Native Azure storage replication mechanisms, for example Azure Files Standard GRS replication, Azure NetApp Files Cross Region Replication, or Azure Files Sync for VM-based file servers? Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files is recommended.? LRS with local only resiliency can be used if no zone/region protection is required.? NOTE: Azure Files Share Standard is LRS/ZRS/GRS, but with 100TB large support enabled only LRS/ZRS are supported. ? Profile Pattern #2: FSLogix Cloud Cache is built in automatic mechanism to replicate containers between different (up to 4) storage accounts. Cloud Cache should be used only when:? User Profile or Office containers data availability required high-availability SLA is critical and need to be resilient to region failure.? Selected storage option is not able to satisfy BCDR requirements. For example, with Azure File Share Premium tier, or Azure File Share Standard with Large File Support enabled, GRS is not available.? When replication between disparate storage is required.? Profile Pattern #3: Only set up geo disaster recovery for application data and not for user data/profile containers: store important application data in separate storages, like OneDrive or other external storage with its own built-in DR mechanism.</t>
+          <t>Profile containers have a default max size of 30GB. If large Profile Containers are anticipated, and customers wants to try to keep them small, consider using OneDrive to host Office 365 files outside the FSLogix profile.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Review Azure NetApp Files DR strategy</t>
+          <t>If FSLogix Cloud Cache is used, move the Cache directory to temporary drive.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files is essentially is LRS (locally replicated storage), then you need to architect something more if you want cross-region replication. The recommendation for cross-region at the moment is NetApp Cloud Sync, replicating to another Azure region (and NetApp Volume). Backup: Backups are handled by snapshots, but are not automatic, need to scheduled using policies. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. There is a maximum limit of snapshots (255) per volume as documented here: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">Cloud Cache uses local disk as cache and may generate lot of pressure on the VM disk. Recommended to leverage the power of temporary (and locally attached) VM disk, if possible based on the VM SKU. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Review Azure Files DR strategy</t>
+          <t>Review the usage of FSLogix redirection.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: GRS for Azure Files is only available with standard SKU and no large share support, then not suitable in most customer scenarios. If geo-replication is required, when using Azure File Share Premium, replication with FSLogix Cloud Cache should be evaluated, or 'in-region' Availability Zone (AZ) only resiliency should be considered. Backup: Azure Backup fully supports Azure File Share all SKUs, and is the recommended solution to protect Profile Containers. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary.</t>
+          <t>REDIRECTION.XML file is used to control what folders are redirected out of the profile container to the C: drive. Exclusions should be the exception and should never be used unless the specific exclusion is completely understood by the person configuring the exclusion. Exclusions should always be fully tested in the environment where they are intended to be implemented. Configuring exclusions may impact functionality, stability and performance.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependencies</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Plan for Golden Image cross-region availability</t>
+          <t>If Azure NetApp Files storage is used, check AD Site name setting in the AD Connection.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Compute Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
+          <t>An Active Directory Site should be created for the Azure virtual network environment where ANF subnet will be created, and that site name should be specified in the ANF connection property when executing the join procedure as explained in the reference article.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependencies</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assess Infrastructure &amp; Application dependencies </t>
+          <t>Enable SMB multichannel when using a premium file share to host FSLogix profile containers.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>If users of the AVD infrastructure need on-premises resource access, high availability of network infrastructure required to connect is also critical and should be considered. Resiliency of authentication infrastructure needs to be assessed and evaluated. BCDR aspects for dependent applications and other resources need to be considered to ensure availability in the secondary DR location.</t>
+          <t>SMB Multichannel enables clients to use multiple network connections that provide increased performance while lowering the cost of ownership. Increased performance is achieved through bandwidth aggregation over multiple NICs and utilizing Receive Side Scaling (RSS) support for NICs to distribute the IO load across multiple CPUs.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,20 +6623,24 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Session Host </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determine which type of managed disk will be used for the Session Hosts  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard HDD, Standard SSD, or Premium SSD, Ephemeral disks are not supported, Ultra-Disks not recommended. Recommended to evaluate Premium for OS disk if user density is not low, and if you are going to use Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -6650,14 +6654,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/avd_checklist.en.xlsx
+++ b/spreadsheet/avd_checklist.en.xlsx
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determine in which Azure region/s AVD Host Pools will be deployed</t>
+          <t>Determine the expected High Availability SLA for applications/desktops published through AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD is a non-regional service, Host Pools can be created in any region, automatic redirection from closest front-end will happen automatically. </t>
+          <t xml:space="preserve">AVD control plan does not offer a financially backed service level agreement. We strive to attain at least 99.9% availability for the Windows Virtual Desktop service URLs. The availability of the session host virtual machines in your subscription is covered by the Virtual Machines SLA. Dependent resources/services and infrastructure availability must be also considered to properly satisfy global high-availability requirements. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determine if hybrid connectivity is required to connect to on-premises environment</t>
+          <t>Assess Geo Disaster Recovery region for AVD Host Pools</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If required to connect to on-premises environment, assess the current connectivity option or plan for the required connectivity. </t>
+          <t>Active-Active' model can be achieved with multiple host pools in different regions. A single Host Pool with VMs from different regions is not recommended.If multiple pools for same users will be used, the problem of how to synchronize/replicate user profiles must be solved. FSLogix Cloud Cache could be used, but need to be carefully reviewed and planned, or customers can decide to do not synchronize/replicate at all. 'Active-Passive' can be achieved using Azure Site Recovery (ASR) or on-demand Pool deployment with automated mechanism.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Did you evaluate latency between users location and Azure AVD infrastructure?</t>
+          <t>Separate critical applications in different AVD Host Pools</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Run the 'Windows Virtual Desktop Experience Estimator' tool to select the best Azure region to deploy Host Pools. Beyond 150ms latency, user experience may be not optimal. </t>
+          <t>Before approaching Windows Virtual Desktop BCDR planning and design, it is important to initially consider which applications are consumed through AVD are critical. You may want to separate them from non-critical apps and use a separate Host Pool with a different disaster recovery approach and capabilities.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determine metadata location for AVD service</t>
+          <t>Plan the best resiliency option for AVD Host Pool deployment</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD store metadata only to run the service in specific geographic locations, determine what is available today and if suitable based on customer requirements. </t>
+          <t xml:space="preserve">? Did you select the proper resiliency level for your Host Pool VMs (Availability Set vs. Availability Zones)?? Are you aware of implications on HA SLA and scalability limits that come with AS or AZ? ? You can currently deploy 399 VMs per Windows Virtual Desktop ARM template deployment without Availability Sets, or 200 VMs per Availability Set.? You can increase the number of VMs per deployment by switching off Availability Sets in either the ARM template or the Azure portal host pool enrollment.Deploying AZ is now possible, one AZ at time at the moment, need to manually create a fraction of VMs in each desired AZ. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Check Azure quotas and availability for specific VM sizes in the selected regions</t>
+          <t>Assess the requirement to backup AVD Session Hosts</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check for specific VM SKUs, especially if you need GPU or high-specs SKUs, and eventually Azure NetApp Files availability if used. </t>
+          <t xml:space="preserve">Azure Backup can be used also to protect Host Pool VMs, this practice is supported, even if Host Pool VMs should be stateless. This option could be considered for Personal Host Pools. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Dependencies</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Check for Availability Zone (AZ) availability in the selected region</t>
+          <t>Plan for Golden Image cross-region availability</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>See BCDR section for more details.</t>
+          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Compute Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Dependencies</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Assess how many users will connect to AVD and from which regions</t>
+          <t xml:space="preserve">Assess Infrastructure &amp; Application dependencies </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For proper planning and and deployment, it is important to asses the maximum number of users and average concurrent sessions. </t>
+          <t>If users of the AVD infrastructure need on-premises resource access, high availability of network infrastructure required to connect is also critical and should be considered. Resiliency of authentication infrastructure needs to be assessed and evaluated. BCDR aspects for dependent applications and other resources need to be considered to ensure availability in the secondary DR location.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determine if all users will have the same set of applications and/or different Host Pool configurations and/or OS images</t>
+          <t>Assess which data need to be protected inside the Profile and Office Containers</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools maybe required to support different set of users, it is recommended to estimate how many will be necessary. </t>
+          <t xml:space="preserve">Not all data inside FSLogix user profiles may deserve protection from disaster. Additionally, if external storage is used, for example OneDrive or File Servers/Shares, what is remaining in the FSLogix profile is minimal and could be lost in some extreme circumstances. In other cases, data inside the profile can be rebuilt from other storages (for example Outlook Inbox in cached mode). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Assess external dependencies for each Host Pool</t>
+          <t>Build a backup protection strategy for Profile and Office Containers</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>The dependencies on resources external to the AVD pool should be assessed and reviewed, for example Active Directory, external file shares or other storage, on-premises services and resources, network infrastructure components like VPN and or Express Route, external services and 3rd-party components. For all these resources, latency from the AVD Host Pool needs to be evaluated and connectivity considered. Additionally, BCDR considerations need to be applied to these dependencies as well.</t>
+          <t>Preventing data loss for critical user data is important, first step is to assess which data need to be saved and protected. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary. Appropriate mechanism must be considered to provide protection for critical user data. Azure Backup service can be used to protect Profile and Office Containers data when stored on Azure Files Standard and Premium tiers. Azure NetApp Files Snapshots and Policies can be used for Azure NetApp Files (all tiers).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Review client OS used and AVD client type</t>
+          <t>Assess Profile Container storage replication requirements and resiliency for BCDR purpose</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Review limitations of each client and compare multiple options when possible.</t>
+          <t>In AVD, multiple replication mechanisms and strategies can be used for user data residing in FSLogix containers:? Profile Pattern #1: Native Azure storage replication mechanisms, for example Azure Files Standard GRS replication, Azure NetApp Files Cross Region Replication, or Azure Files Sync for VM-based file servers? Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files is recommended.? LRS with local only resiliency can be used if no zone/region protection is required.? NOTE: Azure Files Share Standard is LRS/ZRS/GRS, but with 100TB large support enabled only LRS/ZRS are supported. ? Profile Pattern #2: FSLogix Cloud Cache is built in automatic mechanism to replicate containers between different (up to 4) storage accounts. Cloud Cache should be used only when:? User Profile or Office containers data availability required high-availability SLA is critical and need to be resilient to region failure.? Selected storage option is not able to satisfy BCDR requirements. For example, with Azure File Share Premium tier, or Azure File Share Standard with Large File Support enabled, GRS is not available.? When replication between disparate storage is required.? Profile Pattern #3: Only set up geo disaster recovery for application data and not for user data/profile containers: store important application data in separate storages, like OneDrive or other external storage with its own built-in DR mechanism.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Check licensing requirements</t>
+          <t>Review Azure NetApp Files DR strategy</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Customers who are properly licensed to run Windows Virtual Desktop workloads are eligible to apply a Windows license to their session host virtual machines and run them without paying for another license.</t>
+          <t>Geo Disaster Recovery: Azure NetApp Files is essentially is LRS (locally replicated storage), then you need to architect something more if you want cross-region replication. The recommendation for cross-region at the moment is NetApp Cloud Sync, replicating to another Azure region (and NetApp Volume). Backup: Backups are handled by snapshots, but are not automatic, need to scheduled using policies. https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. There is a maximum limit of snapshots (255) per volume as documented here: https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Run a PoC to test end-to-end user experience to verify impact caused by network latency</t>
+          <t>Review Azure Files DR strategy</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depending on the user locations, and AVD region deployment, users may have a non-optimal experience, hence is important to test as soon as possible in a small PoC environment. </t>
+          <t>Geo Disaster Recovery: GRS for Azure Files is only available with standard SKU and no large share support, then not suitable in most customer scenarios. If geo-replication is required, when using Azure File Share Premium, replication with FSLogix Cloud Cache should be evaluated, or 'in-region' Availability Zone (AZ) only resiliency should be considered. Backup: Azure Backup fully supports Azure File Share all SKUs, and is the recommended solution to protect Profile Containers. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine if users will access AVD using full desktops and/or remote applications </t>
+          <t>Determine how applications will be deployed in AVD Host Pools</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine if users will be offered full desktops and/or Remote Application Groups. </t>
+          <t>Applications can be preinstalled in the golden image/s, can be attached using MSIX &amp; AppAttach feature or distributing to hosts after pool deployment using traditional SW distribution methods.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">All users will have the same RDP settings? </t>
+          <t>Estimate the number of golden images that will be required</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>RDP settings can currently only be configured at the host pool level, not per user / group.</t>
+          <t>Will they use fslogix application masking which would lend itself to a single image, or multi images with different applications baked in: what is necessitating more than one image to be used?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clients &amp; Users</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evaluate RDP ShortPath for clients connecting from managed internal networks</t>
+          <t>Determine which OS image/s you will use for Host Pool deployment</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RDP Shortpath for managed networks is a feature of Azure Virtual Desktop that establishes a direct UDP-based transport between Remote Desktop Client and Session host. The removal of extra relay reduces the round-trip time, which improves user experience with latency-sensitive applications and input methods. To support RDP Shortpath, the Azure Virtual Desktop client needs a direct line of sight to the session host, and must be running either Windows 10 or Windows 7 and have the Windows Desktop client installed.</t>
+          <t>Determine which Guest OS will be used to deploy each Host Pool: Windows 10 vs. Windows Server, Marketplace vs. Custom images</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determine the Host Pool type to use</t>
+          <t>If a custom image will be used, determine if there is an automated build process?</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Shared/Pooled or Dedicated/Personal</t>
+          <t xml:space="preserve">If nothing exists, consider using Azure Image Builder to automate the build process. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>For Personal Host Pool type, decide on the assignment type</t>
+          <t>If a custom image will be used, is there a plan to organize and manage the lifecycle of your images?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirm that the difference between automatic and direct assignment is well understood and the selected option is appropriate for the scenario in question.</t>
+          <t>Evaluate Azure Compute Gallery.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>For Pooled Host Pool type, decide on the load balancing method</t>
+          <t>If custom image will be used, check recommended best practices for AVD on how to build master image</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Check which one to use and available options, be aware that if autoscaling will be used, it sets it to breadth-first. </t>
+          <t xml:space="preserve">There are some known best practices and recommendations for the golden image customization, be sure to check the referenced article. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimate the number of different Host Pools to deploy </t>
+          <t>Evaluate the usage of Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Based on your selection criterias, how many Host Pools you would need? You should consider to have multiple ones if:? Multiple OS images? Multiple regions? Different HW required? Different Host Pool type (shared vs. personal)? Different user requirements and SLA (Top users, Execs, Office Worker vs. Developers, etc.)? Different RDP settings (applied at Host Pool level), see https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Required number of VMs in the host pool exceeding maximum capabilities</t>
+          <t xml:space="preserve">This tool-set has been created to automatically apply setting referenced in white paper 'Optimizing Windows 10, version 2004 for a Virtual Desktop Infrastructure (VDI) role': https://learn.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Usage of the tool and/or optimizations mentioned in the white-paper should be considered. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Run workload performance test to determine the best Azure VM SKU and size to use (determine the number of hosts per pool)</t>
+          <t>Plan/Assess AVD Session Host configuration management strategy</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Use the link provided to set a starting point for SKU decision, then validate using a performance test. Ensure a minimum of 4 cores for Production is selected per Session Host (multi-session)</t>
+          <t>Determine if a configuration management tool is already in place to manage Host Pool VM configuration after initial deployment, For example SCCM, MEM/Intune, GPO, 3rd-party solutions.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verify AVD scalability limits for the environment</t>
+          <t>Determine if Microsoft OneDrive will be part of AVD deployment</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is critical to check AVD capacioty and limits reported in the referenced article. </t>
+          <t>Review article provided and check 'Known Folder Redirection' and 'Files OnDemand' OneDrive features should be considered and eventually adopted.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Golden Image/s</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determine if  Session Hosts will require GPU</t>
+          <t>Determine if Microsoft Teams will be part of AVD deployment</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host Pools with GPU require special configuration, please be sure to review the referenced article. </t>
+          <t>Be sure to review this article and use the latest version, review and evaluate Teams exclusions to reduce profile size.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Foundation</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Recommended to use VM SKUs able to leverage Accelerated Networking feature in Azure.</t>
+          <t xml:space="preserve">Do not use the same storage account/share as Profile/Office containers </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Whenever is possible, it is recommended to leverage VM SKUs with Accelerated Networking feature. Today pnly Windows Server OS are supported (see list in the article), in the future Windows Client OS maybe also included. </t>
+          <t xml:space="preserve">It is highly recommended to use separate storage accounts/shares to store MSIX packages. If necessary, storage can scale out independently and not being impacted by profile I/O activities. Azure offers multiple storage options that can be used for MISX app attach. We recommend using Azure Files or Azure NetApp Files as those options offer the best value between cost and management overhead. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>An Azure Active Directory tenant must be available with at least one subscription linked</t>
+          <t>Review performance considerations for MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>An Azure subscription must be parented to the same Azure AD tenant, that contains a virtual network that either contains or is connected to the Windows Server Active Directory or Azure AD DS instance.</t>
+          <t>In the referenced article, we reported few but important performance considerations for MSIX usage in AVD context, be sure to carefully review.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>A Windows Server Active Directory forest/domain is in sync with Azure Active Directory</t>
+          <t>Check proper session host permissions for MSIX share</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>You can configure this using Azure AD Connect (for hybrid organizations) or Azure AD Domain Services (for hybrid or cloud organizations).</t>
+          <t>MSIX app attach requires read-only permissions to access the file share. If you're storing your MSIX applications in Azure Files, then for your session hosts, you'll need to assign all session host VMs both storage account role-based access control (RBAC) and file share New Technology File System (NTFS) permissions on the share.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Check User Account requirements to connect to Windows Virtual Desktop</t>
+          <t>MSIX packages for 3rd-party applications</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) The user must be sourced from the same Active Directory that's connected to Azure AD. Windows Virtual Desktop does not support B2B or MSA accounts. (2) The UPN you use to subscribe to Windows Virtual Desktop must exist in the Active Directory domain the VM is joined to.</t>
+          <t>3rd-party software vendor must provide a MSIX package, it is not recommended for customer to attempt  the conversion procedure without proper support from the application owner.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Check VM requirements for AVD Session Hosts that will be created</t>
+          <t>Disable auto-update for MSIX packages</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>VMs must be Standard domain-joined or Hybrid AD-joined. Virtual machines can't be Azure AD-joined.</t>
+          <t>MSIX app attach doesn't support auto-update for MSIX applications, then should be disabled.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requirements</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before using Azure Active Directory Domain Services (AAD-DS) for AVD, be sure to review the limitations. </t>
+          <t>Review operating systems support</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Compare self-managed Active Directory Domain Services, Azure Active Directory, and managed Azure Active Directory Domain Services</t>
+          <t>In order to leverage MSIX &amp; App Attach, guest OS image for AVD Host pool must be Windows 10 Enterprise or Windows 10 Enterprise Multi-session, version 2004 or later.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Compute</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Session Host</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Create at least two Active Directory Domain Controllers (DCs) in Azure VNET environment close to AVD Host Pool</t>
+          <t>Evaluate the usage of Gen2 VM for Host Pool deployment</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AD DCs in Azure are recommended to reduce latency for users logging into AVD session hosts, and eventually for Azure NetApp Files and AD integration. ADC need to be able to talk to DCs for ALL child domains. As alternative, on-premise connectivity must be used to reach AD DCs. </t>
+          <t>Once selected the VM SKU that will be used for Host Pool deployment, it is recommended to use Gen2 type of the SKU for higher security and improved capabilities.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Create a specific OU in Active Directory for each Host Pool</t>
+          <t>Determine the Host Pool type to use</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recommended to create a separate OU per Host Pool under a separate OU hierarchy. These OUs will contain machine accounts of AVD Session Hosts. </t>
+          <t>Shared/Pooled or Dedicated/Personal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Review Domain GPO that will be applied to OU and impacting Host Pool VM functionalities</t>
+          <t>For Personal Host Pool type, decide on the assignment type</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carefully review, and eventually block/filter inheritance of GPOs to the OUs containing AVD Host Pools. </t>
+          <t>Confirm that the difference between automatic and direct assignment is well understood and the selected option is appropriate for the scenario in question.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Create a dedicated user account with only permissions to join VM to the domain</t>
+          <t>For Pooled Host Pool type, decide on the load balancing method</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recommended to have a specific dedicated account with specific permissions, and without the default 10 joins limitation. </t>
+          <t xml:space="preserve">Check which one to use and available options, be aware that if autoscaling will be used, it sets it to breadth-first. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Create a domain user group for each set of users that will be granted access to each Host Pool Application Group (DAG or RAG)</t>
+          <t xml:space="preserve">Estimate the number of different Host Pools to deploy </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avoid granting access per user, instead use AD groups and replicate them using ADC in Azure AD. </t>
+          <t>Based on your selection criteria, how many Host Pools you would need? You should consider to have multiple ones if:? Multiple OS images? Multiple regions? Different HW required? Different Host Pool type (shared vs. personal)? Different user requirements and SLA (Top users, Execs, Office Worker vs. Developers, etc.)? Different RDP settings (applied at Host Pool level), see https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Required number of VMs in the host pool exceeding maximum capabilities</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Review your organization password expiration policy for accounts used by Azure Files AD integration</t>
+          <t>Run workload performance test to determine the best Azure VM SKU and size to use (determine the number of hosts per pool)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>As part of the procedure to integrate Azure File Share and Active Directory authenticaton, an AD account to represent the storage account (file share) will be created. You can choose to register as a computer account or service logon account, see FAQ for details. For computer accounts, there is a default password expiration age set in AD at 30 days. Similarly, the service logon account may have a default password expiration age set on the AD domain or Organizational Unit (OU). For both account types, we recommend you check the password expiration age configured in your AD environment and plan to update the password of your storage account identity of the AD account before the maximum password age. You can consider creating a new AD Organizational Unit (OU) in AD and disabling password expiration policy on computer accounts or service logon accounts accordingly.</t>
+          <t>Use the link provided to set a starting point for SKU decision, then validate using a performance test. Ensure a minimum of 4 cores for Production is selected per Session Host (multi-session)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Review hybrid connectivity architecture for on-premises environment</t>
+          <t>Verify AVD scalability limits for the environment</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>Which type of hybrid connectivity? Express Route, VPN, NVA?</t>
+          <t xml:space="preserve">It is critical to check AVD capacity and limits reported in the referenced article. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Assess which resources users will need to access from AVD Host Pools to on-premises</t>
+          <t>Determine if  Session Hosts will require GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluate the bandwidth requirements, ensure VPN/ER bandwidth will be enough, and latency tolerable. </t>
+          <t xml:space="preserve">Host Pools with GPU require special configuration, please be sure to review the referenced article. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Review landing zone networking topology for AVD service</t>
+          <t>Recommended to use VM SKUs able to leverage Accelerated Networking feature in Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Review or recommend a new one where to place AVD Host Pools based on CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Whenever is possible, it is recommended to leverage VM SKUs with Accelerated Networking feature. Today pnly Windows Server OS are supported (see list in the article), in the future Windows Client OS maybe also included. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Assess VNET and subnet placement for multiple Host Pools</t>
+          <t>Assess how many users will connect to AVD and from which regions</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure each subnet will have enough space to scale the AVD Host Pool. For different Host Pools, it is recommended to use separate subnets  if possible. </t>
+          <t xml:space="preserve">For proper planning and and deployment, it is important to asses the maximum number of users and average concurrent sessions. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Need to control/restrict Internet outbound traffic for AVD hosts? </t>
+          <t>Determine if all users will have the same set of applications and/or different Host Pool configurations and/or OS images</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Several options are available. You can use Azure Firewall or NVA Firewall, NSG and/or Proxy. NSG is not able to enable/disable by URL, only ports and protocols.Proxy should be used only as explicit setting in user browser. Details on using Azure Firewall Premium with AVD are here on https://aka.ms/AVDfirewall and here https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Be sure to review full list of requirements for AVD URLs access.</t>
+          <t xml:space="preserve">Multiple Host Pools maybe required to support different set of users, it is recommended to estimate how many will be necessary. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Need to control/restrict Internet outbound traffic only for users on AVD hosts? </t>
+          <t>Assess external dependencies for each Host Pool</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation, see the Security section for more details. </t>
+          <t>The dependencies on resources external to the AVD pool should be assessed and reviewed, for example Active Directory, external file shares or other storage, on-premises services and resources, network infrastructure components like VPN and or Express Route, external services and 3rd-party components. For all these resources, latency from the AVD Host Pool needs to be evaluated and connectivity considered. Additionally, BCDR considerations need to be applied to these dependencies as well.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Review UDR for AVD Host Pool subnet</t>
+          <t>Review client OS used and AVD client type</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Custom UDR can be applied to AVD Host Pool subnet, for example to redirect to Azure Firewall or NVA. In this case is recommended to carefully review to ensure optimal path for outbound traffic to AVD control plane is used. Service Tags can now be used with UDR, then AVD management plane traffic can be easily whitelisted. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Review limitations of each client and compare multiple options when possible.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Ensure AVD control plane endpoints are accessible</t>
+          <t>Check licensing requirements</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Required URLs for AVD control plane access by session hosts are documented here: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. A check tool is available to verify connectivity from the session hosts: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Customers who are properly licensed to run Windows Virtual Desktop workloads are eligible to apply a Windows license to their session host virtual machines and run them without paying for another license.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Check the network bandwidth required for each user and in total for the VM SKU</t>
+          <t>Run a PoC to test end-to-end user experience to verify impact caused by network latency</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is recommended to assess and review networking bandwidth requirements for users, based on the specific workload type. The referenced article provide general estimations and recommendations, but specific measure are required for proper sizing. </t>
+          <t xml:space="preserve">Depending on the user locations, and AVD region deployment, users may have a non-optimal experience, hence is important to test as soon as possible in a small PoC environment. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Session Host</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Gen2 VM for Host Pool deployment</t>
+          <t xml:space="preserve">Determine if users will access AVD using full desktops and/or remote applications </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Once selected the VM SKU that will be used for Host Pool deployment, it is recommended to use Gen2 type of the SKU for higher security and improved capabilities.</t>
+          <t xml:space="preserve">Determine if users will be offered full desktops and/or Remote Application Groups. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determine how applications will be deployed in AVD Host Pools</t>
+          <t xml:space="preserve">All users will have the same RDP settings? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Applications can be preinstalled in the golden image/s, can be attached using MSIX &amp; AppAttach feature or distributing to hosts after pool deployment using traditional SW distribution methods.</t>
+          <t>RDP settings can currently only be configured at the host pool level, not per user / group.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Clients &amp; Users</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estimate the number of golden images that will be required</t>
+          <t>Evaluate RDP ShortPath for clients connecting from managed internal networks</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>Will they use fslogix application masking which would lend itself to a single image, or multi images with different applications baked in: what is necessitating more than one image to be used?</t>
+          <t>RDP Shortpath for managed networks is a feature of Azure Virtual Desktop that establishes a direct UDP-based transport between Remote Desktop Client and Session host. The removal of extra relay reduces the round-trip time, which improves user experience with latency-sensitive applications and input methods. To support RDP Shortpath, the Azure Virtual Desktop client needs a direct line of sight to the session host, and must be running either Windows 10 or Windows 7 and have the Windows Desktop client installed.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determine which OS image/s you will use for Host Pool deployment</t>
+          <t>Determine in which Azure region/s AVD Host Pools will be deployed.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determine which Guest OS will be used to deploy each Host Pool: Windows 10 vs. Windows Server, Marketplace vs. Custom images</t>
+          <t>AVD is a non-regional service, Host Pools can be created in any region, automatic redirection from closest front-end will happen automatically.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>If a custom image will be used, determine if there is an automated build process?</t>
+          <t>Determine if hybrid connectivity is required to connect to on-premises environment</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">If nothing exists, consider using Azure Image Builder to automate the build process. </t>
+          <t xml:space="preserve">If required to connect to on-premises environment, assess the current connectivity option or plan for the required connectivity. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>If a custom image will be used, is there a plan to organise and manage the lifecycle of your images?</t>
+          <t>Did you evaluate latency between users location and Azure AVD infrastructure?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evaluate Azure Compute Gallery.</t>
+          <t xml:space="preserve">Run the 'Windows Virtual Desktop Experience Estimator' tool to select the best Azure region to deploy Host Pools. Beyond 150ms latency, user experience may be not optimal. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>If custom image will be used, check recommended best practices for AVD on how to build master image</t>
+          <t>Determine metadata location for AVD service</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are some known best practices and recommendations for the golden image customization, be sure to check the referenced article. </t>
+          <t xml:space="preserve">AVD store metadata only to run the service in specific geographic locations, determine what is available today and if suitable based on customer requirements. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Virtual-Desktop-Optimization-Tool</t>
+          <t>Check Azure quotas and availability for specific VM sizes in the selected regions</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">This tool-set has been created to automatically apply setting referenced in white paper 'Optimizing Windows 10, version 2004 for a Virtual Desktop Infrastructure (VDI) role': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Usage of the tool and/or optimizations mentioned in the white-paper should be considered. </t>
+          <t xml:space="preserve">Check for specific VM SKUs, especially if you need GPU or high-specs SKUs, and eventually Azure NetApp Files availability if used. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Foundation</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Plan/Assess AVD Session Host configuration management strategy</t>
+          <t>Check for Availability Zone (AZ) availability in the selected region</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine if a configuration management tool is already in place to manage Host Pool VM configuration after initial deployment, For example SCCM, MEM/Intune, GPO, 3rd-party solutions.</t>
+          <t>See BCDR section for more details.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://learn.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determine if Microsoft OneDrive will be part of AVD deployment</t>
+          <t>Create at least two Active Directory Domain Controllers (DCs) in Azure VNET environment close to AVD Host Pool</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Review article provided and check 'Known Folder Redirection' and 'Files OnDemand' OneDrive features should be considered and eventually adopted.</t>
+          <t xml:space="preserve">AD DCs in Azure are recommended to reduce latency for users logging into AVD session hosts, and eventually for Azure NetApp Files and AD integration. ADC need to be able to talk to DCs for ALL child domains. As alternative, on-premise connectivity must be used to reach AD DCs. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Golden Image/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determine if Microsoft Teams will be part of AVD deployment</t>
+          <t>Create a specific OU in Active Directory for each Host Pool</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Be sure to review this article and use the latest version, review and evaluate Teams exclusions to reduce profile size.</t>
+          <t xml:space="preserve">Recommended to create a separate OU per Host Pool under a separate OU hierarchy. These OUs will contain machine accounts of AVD Session Hosts. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Do not use the same storage account/share as Profile/Office containers </t>
+          <t>Review Domain GPO that will be applied to OU and impacting Host Pool VM functionalities</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is highly recommended to use separate storage accounts/shares to store MSIX packages. If necessary, storage can scale out independently and not being impacted by profile I/O activities. Azure offers multiple storage options that can be used for MISX app attach. We recommend using Azure Files or Azure NetApp Files as those options offer the best value between cost and management overhead. </t>
+          <t xml:space="preserve">Carefully review, and eventually block/filter inheritance of GPOs to the OUs containing AVD Host Pools. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Review performance considerations for MSIX</t>
+          <t>Create a dedicated user account with only permissions to join VM to the domain</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>In the referenced article, we reported few but important performance considerations for MSIX usage in AVD context, be sure to carefully review.</t>
+          <t xml:space="preserve">Recommended to have a specific dedicated account with specific permissions, and without the default 10 joins limitation. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Check proper session host permissions for MSIX share</t>
+          <t>Create a domain user group for each set of users that will be granted access to each Host Pool Application Group (DAG or RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MSIX app attach requires read-only permissions to access the file share. If you're storing your MSIX applications in Azure Files, then for your session hosts, you'll need to assign all session host VMs both storage account role-based access control (RBAC) and file share New Technology File System (NTFS) permissions on the share.</t>
+          <t xml:space="preserve">Avoid granting access per user, instead use AD groups and replicate them using ADC in Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>MSIX packages for 3rd-party applications</t>
+          <t>Review your organization password expiration policy for accounts used by Azure Files AD integration</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>3rd-party software vendor must provide a MSIX package, it is not recommended for customer to attempt  the conversion procedure without proper support from the application owner.</t>
+          <t>As part of the procedure to integrate Azure File Share and Active Directory authentication, an AD account to represent the storage account (file share) will be created. You can choose to register as a computer account or service logon account, see FAQ for details. For computer accounts, there is a default password expiration age set in AD at 30 days. Similarly, the service logon account may have a default password expiration age set on the AD domain or Organizational Unit (OU). For both account types, we recommend you check the password expiration age configured in your AD environment and plan to update the password of your storage account identity of the AD account before the maximum password age. You can consider creating a new AD Organizational Unit (OU) in AD and disabling password expiration policy on computer accounts or service logon accounts accordingly.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Disable auto-update for MSIX packages</t>
+          <t>An Azure Active Directory tenant must be available with at least one subscription linked</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>MSIX app attach doesn't support auto-update for MSIX applications, then should be disabled.</t>
+          <t>An Azure subscription must be parented to the same Azure AD tenant, that contains a virtual network that either contains or is connected to the Windows Server Active Directory or Azure AD DS instance.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Review operating systems support</t>
+          <t>A Windows Server Active Directory forest/domain is in sync with Azure Active Directory</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>In order to leverage MSIX &amp; App Attach, guest OS image for AVD Host pool must be Windows 10 Enterprise or Windows 10 Enterprise Multi-session, version 2004 or later.</t>
+          <t>You can configure this using Azure AD Connect (for hybrid organizations) or Azure AD Domain Services (for hybrid or cloud organizations).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Session Host </t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine which type of managed disk will be used for the Session Hosts  </t>
+          <t>Check User Account requirements to connect to Windows Virtual Desktop</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Standard HDD, Standard SSD, or Premium SSD, Ephemeral disks are not supported, Ultra-Disks not recommended. Recommended to evaluate Premium for OS disk if user density is not low, and if you are going to use Cloud Cache. </t>
+          <t>(1) The user must be sourced from the same Active Directory that's connected to Azure AD. Windows Virtual Desktop does not support B2B or MSA accounts. (2) The UPN you use to subscribe to Windows Virtual Desktop must exist in the Active Directory domain the VM is joined to.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determine which storage backend solution will be used for FSLogix Profile and Office Containers</t>
+          <t>Check VM requirements for AVD Session Hosts that will be created</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, VM based File Server. File-server not recommended. Azure Files Premium typically a good starting point. NetApp only usually required for large scale / high-performant environment. </t>
+          <t>VMs must be Standard domain-joined or Hybrid AD-joined. Virtual machines can't be Azure AD-joined.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requirements</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the possibility to separate Profile Containers from Office Containers</t>
+          <t xml:space="preserve">Before using Azure Active Directory Domain Services (AAD-DS) for AVD, be sure to review the limitations. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The recommendation in Windows Virtual Desktop is to use Profile Container without Office Container unless you are planning for specific Business Continuity and Disaster Recovery (BCDR) scenarios as described in the Disaster Recovery section below. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Compare self-managed Active Directory Domain Services, Azure Active Directory, and managed Azure Active Directory Domain Services</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Verify storage scalability limits to support Host Pool requirements</t>
+          <t>Assess the requirement for host pool auto-scaling capability</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>As a starting point for estimating profile container storage performance requirements we recommend to assume 10 IOPS per user in the steady state and 50 IOPS per user during sign-in/sign-out.</t>
+          <t xml:space="preserve">The scaling tool provides a low-cost automation option for customers who want to optimize their session host VM costs. You can use the scaling tool to schedule VMs to start and stop based on Peak and Off-Peak business hours, scale out VMs based on number of sessions per CPU core, scale in VMs during Off-Peak hours, leaving the minimum number of session host VMs running. Not available yet for Personal Host Pool type, recommended to have a separate setup for each host pool. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>If NetApp Files storage is used, check storage service availability in your specific region.</t>
+          <t>Periodically check Azure Advisor recommendations for AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>If a second region is required for DR purposes verify NetApp availability there as well.</t>
+          <t>Azure Advisor analyzes your configurations and telemetry to offer personalized recommendations to solve common problems. With these recommendations, you can optimize your Azure resources for reliability, security, operational excellence, performance, and cost.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>For optimal performance, the storage solution and the FSLogix profile container should be in the same data-center location.</t>
+          <t>Plan for a golden image update management strategy</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Avoid introducing additional latency and costs associated with cross-region network traffic where possible.</t>
+          <t>Prepare a strategy to manage updates to golden images, for example to apply security hotfixes and/or update applications installed inside the image. Azure Image Builder Service is a 1st party solution for automating the build and customization of VMs. ARM templates can be used to create new hosts, then decommission the old ones: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Recommended approach is to create a new pool side-by-side, easier to rollback, not usable for dedicated poolRe-deploy and increase the number of VMs with the ARM template is also a viable option. Customers may also want to use existing software distribution methods to update image without re-deploy, for example with SCCM or similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure the recommended antivirus exclusions for FSLogix (includes not scanning VHD(x) files on connect).</t>
+          <t>Plan for a Session Host patching and update strategy</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Make sure to configure the following antivirus exclusions for FSLogix Profile Container virtual hard drives, as documented in the referenced article.</t>
+          <t xml:space="preserve">Customers can have several options:- Microsoft Endpoint Configuration Manager, this article explains how to configure Microsoft Endpoint Configuration Manager to automatically apply updates to a Windows Virtual Desktop host running Windows 10 Enterprise multi-session: https://learn.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- 3rd Party that supports you OS.- Azure Update Management (Azure Automation), today not supported for client OS: https://learn.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt is recommended to move away from a patching strategy and move to a re-imaging strategy if possible. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Review FSLogix registry keys and determine which ones to apply</t>
+          <t>Assess the requirement for a AVD test canary environment</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Default basic and recommended settings are here: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises See here for core set: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee here for complete reference: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Host pools are a collection of one or more identical virtual machines within Windows Virtual Desktop environment. We highly recommend you create a validation host pool where service updates are applied first. This allows you to monitor service updates before the service applies them to your standard or non-validation environment.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Check usage of concurrent or multiple connections to the same profile</t>
+          <t>Determine Host Pool deployment strategy</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Concurrent or multiple connections are discouraged in Windows Virtual Desktop. The best practice is to create a different profile location for each session (as a host pool).</t>
+          <t>A AVD Host Pool can be deployed in several ways: Azure Portal, ARM templates, Azure CLI tool, Powershell, manual VM creation with registration token, Terraform, etc. It is important to adopt proper method/s to support automatic deployment through automation and CI/CD tools.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Review best practices and key considerations for storage sizing</t>
+          <t>Turn on VMs regularly every 90 days for token refresh</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">As a general estimation, to be validated in a test environment, for each user 5 - 15 IOPS should be first considered, depending on the workload. Azure Files: Premium max 100k IOPS per share (max 100TB) and up to 5Gbps with 3ms latency. Be aware of how Azure Files is provisioned, that is IOPS strictly tied t'o provisioned SIZE. Burst sizing capability in some cases. Be sure to provision UPFRONT more space than required to be sure to have enough IOPS. NOTE: Azure Premium maybe cheaper than Standard because you don't pay transactions, then important detail to keep in mind.Azure NetApp Files: remember max 1000 IPs connected, can adjust IOPS on the fly, minimum 4TB provisioned capacity. </t>
+          <t>After you register a VM to a host pool within the Windows Virtual Desktop service, the agent regularly refreshes the VM's token whenever the VM is active. The certificate for the registration token is valid for 90 days. Because of this 90-day limit, we recommend VMs to be online for 20 minutes every 90 days so that the machine can refresh its tokens and update the agent and side-by-side stack components.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Check best-practices for Azure Files (if used)</t>
+          <t>Enable Azure Monitoring for AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
+          <t>Azure Monitor for Windows Virtual Desktop is a dashboard built on Azure Monitor Workbooks that helps IT professionals understand their Windows Virtual Desktop environments. Read the referenced article to learn how to set up Azure Monitor for Windows Virtual Desktop to monitor your Windows Virtual Desktop environments.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Check best-practices for NetApp Files (if used)</t>
+          <t>Enable and redirect diagnostic settings for Workspaces, Host Pools, Application Groups and Host VMs to Log Analytics workspace</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
+          <t xml:space="preserve">Windows Virtual Desktop uses Azure Monitor and Log Analytics for monitoring and alerts like many other Azure services. This lets admins identify issues through a single interface. The service creates activity logs for both user and administrative actions.  Each activity log falls under the following categories: Management, Feed, Connections, Host Registration, Errors, Checkpoints. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Review and confirm configured maximum profile size in FSLogix</t>
+          <t>Create alerts on the profile storage to be alerted in case of high usage and throttling</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Profile containers have a default max size of 30GB. If large Profile Containers are anticipated, and customers wants to try to keep them small, consider using OneDrive to host Office 365 files outside the FSLogix profile.</t>
+          <t xml:space="preserve">See the referenced article and this additional one to setup proper monitoring and alerting for storage: https://learn.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Monitoring and Management</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>If FSLogix Cloud Cache is used, move the Cache directory to temporary drive.</t>
+          <t xml:space="preserve">Configure Azure Service Health for AVD alerts </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache uses local disk as cache and may generate lot of pressure on the VM disk. Recommended to leverage the power of temporary (and locally attached) VM disk, if possible based on the VM SKU. </t>
+          <t>You can use Azure Service Health to monitor service issues and health advisories for Windows Virtual Desktop. Azure Service Health can notify you with different types of alerts (for example, email or SMS), help you understand the effect of an issue, and keep you updated as the issue resolves.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Review the usage of FSLogix redirection.</t>
+          <t>Review hybrid connectivity architecture for on-premises environment</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML file is used to control what folders are redirected out of the profile container to the C: drive. Exclusions should be the exception and should never be used unless the specific exclusion is completely understood by the person configuring the exclusion. Exclusions should always be fully tested in the environment where they are intended to be implemented. Configuring exclusions may impact functionality, stability and performance.</t>
+          <t>Which type of hybrid connectivity? Express Route, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>If Azure NetApp Files storage is used, check AD Site name setting in the AD Connection.</t>
+          <t>Assess which resources users will need to access from AVD Host Pools to on-premises</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>An Active Directory Site should be created for the Azure virtual network environment where ANF subnet will be created, and that site name should be specified in the ANF connection property when executing the join procedure as explained in the reference article.</t>
+          <t xml:space="preserve">Evaluate the bandwidth requirements, ensure VPN/ER bandwidth will be enough, and latency tolerable. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure AVD users will not have local admin privileges on AVD Hosts. </t>
+          <t>Review landing zone networking topology for AVD service</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>We recommend you don't grant your users admin access to virtual desktops. If you need software packages, we recommend you make them available through configuration management utilities like Microsoft Endpoint Manager. In a multi-session environment, we recommend you don't let users install software directly.</t>
+          <t>Review or recommend a new one where to place AVD Host Pools based on CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Ensure anti-virus and anti-malware solution is used</t>
+          <t>Assess VNET and subnet placement for multiple Host Pools</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint now supports Windows Virtual Desktop for Windows 10 Enterprise multi-session.Check article for onboarding non-persistent virtual desktop infrastructure (VDI) devices: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Ensure each subnet will have enough space to scale the AVD Host Pool. For different Host Pools, it is recommended to use separate subnets  if possible. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Ensure proper AV exclusions are in place</t>
+          <t xml:space="preserve">Need to control/restrict Internet outbound traffic for AVD hosts? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Be sure the following exclusions are in place: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Several options are available. You can use Azure Firewall or NVA Firewall, NSG and/or Proxy. NSG is not able to enable/disable by URL, only ports and protocols.Proxy should be used only as explicit setting in user browser. Details on using Azure Firewall Premium with AVD are here on https://aka.ms/AVDfirewall and here https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Be sure to review full list of requirements for AVD URLs access.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Assess disk encryption requirements for AVD Hosts</t>
+          <t xml:space="preserve">Need to control/restrict Internet outbound traffic only for users on AVD hosts? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Disks in Azure are already encrypted at rest by default with Microsoft managed keys.Host VM OS disk encryption is possible and supported using ADE and DES: sensible and peristent user data should not be storedf on the Session Host disk, then it should be used only if strictly required for compliance reason. Encryption of FSLogix storage using Azure Files can be done using SSE on Azure Storage.For OneDrive encryption, see this article: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation, see the Security section for more details. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Host Configuration</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Need to control/restrict user Internet navigation from AVD session hosts?</t>
+          <t>Review UDR for AVD Host Pool subnet</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation. </t>
+          <t xml:space="preserve">Custom UDR can be applied to AVD Host Pool subnet, for example to redirect to Azure Firewall or NVA. In this case is recommended to carefully review to ensure optimal path for outbound traffic to AVD control plane is used. Service Tags can now be used with UDR, then AVD management plane traffic can be easily whitelisted. https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Azure Security Center (ASC) for AVD Session Hosts</t>
+          <t>Ensure AVD control plane endpoints are accessible</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>We recommend you enable Azure Security Center Standard for subscriptions, virtual machines, key vaults, and storage accounts.With Azure Security Center Standard is possible to assess and manage vulnerabilities, assess compliance with common frameworks like PCI, strengthen the overall security of your AVD environment.</t>
+          <t>Required URLs for AVD control plane access by session hosts are documented here: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list. A check tool is available to verify connectivity from the session hosts: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Review Active Directory GPOs to secure RDP sessions</t>
+          <t>Check the network bandwidth required for each user and in total for the VM SKU</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Should be used, for example to impose desktop lockout and idle session termination. Existing GPOs applied to on-premises environment should be reviewed and eventually applied to secure also AVD Hosts. </t>
+          <t xml:space="preserve">It is recommended to assess and review networking bandwidth requirements for users, based on the specific workload type. The referenced article provide general estimations and recommendations, but specific measure are required for proper sizing. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of MFA for AVD users</t>
+          <t xml:space="preserve">Ensure AVD users will not have local admin privileges on AVD Hosts. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>For additional details and insights, see this article: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>We recommend you don't grant your users admin access to virtual desktops. If you need software packages, we recommend you make them available through configuration management utilities like Microsoft Endpoint Manager. In a multi-session environment, we recommend you don't let users install software directly.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Evaluate the usage of Conditional Access for users</t>
+          <t>Ensure anti-virus and anti-malware solution is used</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>Enabling Conditional Access lets you manage risks before you grant users access to your Windows Virtual Desktop environment. When deciding which users to grant access to, we recommend you also consider who the user is, how they sign in, and which device they're using.</t>
+          <t>Microsoft Defender for Endpoint now supports Windows Virtual Desktop for Windows 10 Enterprise multi-session.Check article for onboarding non-persistent virtual desktop infrastructure (VDI) devices: https://learn.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5308,7 +5308,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Enable diagnostic and audit logging to central Log Analytics workspace</t>
+          <t>Ensure proper AV exclusions are in place</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enabling audit log collection lets you view user and admin activity related to Windows Virtual Desktop. This is also a requirement to eanble and use AVD Monitoring tool. Highly recommended to enable. </t>
+          <t>Be sure the following exclusions are in place: https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assess the requirement to use custom RBAC roles for AVD management </t>
+          <t>Assess disk encryption requirements for AVD Hosts</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD uses Azure role-based access controls (RBAC) to assign roles to users and admins. These roles give admins permission to carry out certain tasks. If separation of duties is required, Windows Virtual Desktop has additional roles that let you separate management roles for host pools, app groups, and workspaces. This separation lets you have more granular control over administrative tasks. These roles are named in compliance with Azure's standard roles and least-privilege methodology.</t>
+          <t>Disks in Azure are already encrypted at rest by default with Microsoft managed keys.Host VM OS disk encryption is possible and supported using ADE and DES: sensible and persistent user data should not be stored on the Session Host disk, then it should be used only if strictly required for compliance reason. Encryption of FSLogix storage using Azure Files can be done using SSE on Azure Storage.For OneDrive encryption, see this article: https://learn.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Host Configuration</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Review all security best practices for AVD environment</t>
+          <t>Need to control/restrict user Internet navigation from AVD session hosts?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A comprehensive set of security best practices and recommendations are contained in the referenced article, it is recommended to review. </t>
+          <t xml:space="preserve">Consider the usage of Azure Defender Endpoint to control user web navigation. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Enable Azure Monitoring for AVD</t>
+          <t>Evaluate the usage of Azure Security Center (ASC) for AVD Session Hosts</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Windows Virtual Desktop is a dashboard built on Azure Monitor Workbooks that helps IT professionals understand their Windows Virtual Desktop environments. Read the referenced article to learn how to set up Azure Monitor for Windows Virtual Desktop to monitor your Windows Virtual Desktop environments.</t>
+          <t>We recommend you enable Azure Security Center Standard for subscriptions, virtual machines, key vaults, and storage accounts.With Azure Security Center Standard is possible to assess and manage vulnerabilities, assess compliance with common frameworks like PCI, strengthen the overall security of your AVD environment.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Enable and redirect diagnostic settings for Workspaces, Host Pools, Application Groups and Host VMs to Log Analytics workspace</t>
+          <t>Review Active Directory GPOs to secure RDP sessions</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows Virtual Desktop uses Azure Monitor and Log Analytics for monitoring and alerts like many other Azure services. This lets admins identify issues through a single interface. The service creates activity logs for both user and administrative actions.  Each activity log falls under the following categories: Management, Feed, Connections, Host Registration, Errors, Checkpoints. </t>
+          <t xml:space="preserve">Should be used, for example to impose desktop lockout and idle session termination. Existing GPOs applied to on-premises environment should be reviewed and eventually applied to secure also AVD Hosts. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Create alerts on the profile storage to be alerted in case of high usage and throttling</t>
+          <t>Evaluate the usage of MFA for AVD users</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">See the referenced article and this additional one to setup proper monitoring and alerting for storage: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>For additional details and insights, see this article: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configure Azure Service Health for AVD alerts </t>
+          <t>Evaluate the usage of Conditional Access for users</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>You can use Azure Service Health to monitor service issues and health advisories for Windows Virtual Desktop. Azure Service Health can notify you with different types of alerts (for example, email or SMS), help you understand the effect of an issue, and keep you updated as the issue resolves.</t>
+          <t>Enabling Conditional Access lets you manage risks before you grant users access to your Windows Virtual Desktop environment. When deciding which users to grant access to, we recommend you also consider who the user is, how they sign in, and which device they're using.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement for host pool auto-scaling capability</t>
+          <t>Enable diagnostic and audit logging to central Log Analytics workspace</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">The scaling tool provides a low-cost automation option for customers who want to optimize their session host VM costs. You can use the scaling tool to schedule VMs to start and stop based on Peak and Off-Peak business hours, scale out VMs based on number of sessions per CPU core, scale in VMs during Off-Peak hours, leaving the minimum number of session host VMs running. Not available yet for Personal Host Pool type, recommended to have a separate setup for each host pool. </t>
+          <t xml:space="preserve">Enabling audit log collection lets you view user and admin activity related to Windows Virtual Desktop. This is also a requirement to enable and use AVD Monitoring tool. Highly recommended to enable. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Periodically check Azure Advisor recommendations for AVD</t>
+          <t xml:space="preserve">Assess the requirement to use custom RBAC roles for AVD management </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor analyzes your configurations and telemetry to offer personalized recommendations to solve common problems. With these recommendations, you can optimize your Azure resources for reliability, security, operational excellence, performance, and cost.</t>
+          <t>AVD uses Azure role-based access controls (RBAC) to assign roles to users and admins. These roles give admins permission to carry out certain tasks. If separation of duties is required, Windows Virtual Desktop has additional roles that let you separate management roles for host pools, app groups, and workspaces. This separation lets you have more granular control over administrative tasks. These roles are named in compliance with Azure's standard roles and least-privilege methodology.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Plan for a golden image update management strategy</t>
+          <t>Review all security best practices for AVD environment</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare a strategy to manage updates to golden images, for example to apply security hotfixes and/or update applications installed inside the image. Azure Image Builder Service is a 1st party solution for automating the build and customisation of VMs.ARM templates can be used to create new hosts, then decommission the old ones: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool Recommended approach is to create a new pool side-by-side, easier to rollback, not usable for dedicated poolRe-deploy and increase the number of VMs with the ARM template is also a viable option. Customers may also want to use existing software distribution methods to update image without re-deploy, for exampel with SCCM or similar.</t>
+          <t xml:space="preserve">A comprehensive set of security best practices and recommendations are contained in the referenced article, it is recommended to review. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Plan for a Session Host patching and update strategy</t>
+          <t>Determine which storage backend solution will be used for FSLogix Profile and Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Customers can have several options:- Microsoft Endpoint Configuration Manager, this article explains how to configure Microsoft Endpoint Configuration Manager to automatically apply updates to a Windows Virtual Desktop host running Windows 10 Enterprise multi-session: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)- 3rd Party that supports you OS.- Azure Update Management (Azure Automation), today not supported for client OS: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt is recommended to move away from a patching strategy and move to a re-imaging strategy if possible. </t>
+          <t xml:space="preserve">Azure NetApp Files, Azure Files, VM based File Server. File-server not recommended. Azure Files Premium typically a good starting point. NetApp only usually required for large scale / high-performant environment. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement for a AVD test canary environment</t>
+          <t>Evaluate the possibility to separate Profile Containers from Office Containers</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Host pools are a collection of one or more identical virtual machines within Windows Virtual Desktop environment. We highly recommend you create a validation host pool where service updates are applied first. This allows you to monitor service updates before the service applies them to your standard or non-validation environment.</t>
+          <t xml:space="preserve">The recommendation in Windows Virtual Desktop is to use Profile Container without Office Container unless you are planning for specific Business Continuity and Disaster Recovery (BCDR) scenarios as described in the Disaster Recovery section below. https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determine Host Pool deployment strategy</t>
+          <t>Verify storage scalability limits to support Host Pool requirements</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>A AVD Host Pool can be deployed in several ways: Azure Portal, ARM templates, Azure CLI tool, Powershell, manual VM creation with registration token, Terraform, etc. It is important to adopt proper method/s to support automatic deployment through automation and CI/CD tools.</t>
+          <t>As a starting point for estimating profile container storage performance requirements we recommend to assume 10 IOPS per user in the steady state and 50 IOPS per user during sign-in/sign-out.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoring and Management</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Turn on VMs regulary every 90 days for token refresh</t>
+          <t>If NetApp Files storage is used, check storage service availability in your specific region.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>After you register a VM to a host pool within the Windows Virtual Desktop service, the agent regularly refreshes the VM's token whenever the VM is active. The certificate for the registration token is valid for 90 days. Because of this 90-day limit, we recommend VMs to be online for 20 minutes every 90 days so that the machine can refresh its tokens and update the agent and side-by-side stack components.</t>
+          <t>If a second region is required for DR purposes verify NetApp availability there as well.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determine the expected High Availability SLA for applications/desktops published through AVD</t>
+          <t>For optimal performance, the storage solution and the FSLogix profile container should be in the same data-center location.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD control plan does not offer a financially backed service level agreement. We strive to attain at least 99.9% availability for the Windows Virtual Desktop service URLs. The availability of the session host virtual machines in your subscription is covered by the Virtual Machines SLA. Dependent resources/services and infrastructure availability must be also considered to properly satisfy global high-availability requirements. </t>
+          <t>Avoid introducing additional latency and costs associated with cross-region network traffic where possible.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Assess Geo Disaster Recovery region for AVD Host Pools</t>
+          <t>Configure the recommended antivirus exclusions for FSLogix (includes not scanning VHD(x) files on connect).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>Active-Active' model can be achieved with multiple host pools in different regions. A single Host Pool with VMs from different regions is not recommended.If multiple pools for same users will be used, the problem of how to synchronize/replicate user profiles must be solved. FSLogix Cloud Cache could be used, but need to be carefully reviewed and planned, or customers can decide to do not synchronize/replicate at all. 'Active-Passive' can be achieved using Azure Site Recovery (ASR) or on-demand Pool deployment with automated mechanism.</t>
+          <t>Make sure to configure the following antivirus exclusions for FSLogix Profile Container virtual hard drives, as documented in the referenced article.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Separate critical applications in different AVD Host Pools</t>
+          <t>Review FSLogix registry keys and determine which ones to apply</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Before approaching Windows Virtual Desktop BCDR planning and design, it is important to initially consider which applications are consumed through AVD are critical. You may want to separate them from non-critical apps and use a separate Host Pool with a different disaster recovery approach and capabilities.</t>
+          <t xml:space="preserve">Default basic and recommended settings are here: https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises See here for core set: https://learn.microsoft.com/fslogix/configure-profile-container-tutorialSee here for complete reference: https://learn.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Plan the best resiliency option for AVD Host Pool deployment</t>
+          <t>Check usage of concurrent or multiple connections to the same profile</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? Did you select the proper resiliency level for your Host Pool VMs (Availability Set vs. Availability Zones)?? Are you aware of implications on HA SLA and scalability limits that come with AS or AZ? ? You can currently deploy 399 VMs per Windows Virtual Desktop ARM template deployment without Availability Sets, or 200 VMs per Availability Set.? You can increase the number of VMs per deployment by switching off Availability Sets in either the ARM template or the Azure portal host pool enrollment.Deploying AZ is now possible, one AZ at time at the moment, need to manually create a fraction of VMs in each desired AZ. </t>
+          <t>Concurrent or multiple connections are discouraged in Windows Virtual Desktop. The best practice is to create a different profile location for each session (as a host pool).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Compute</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Assess the requirement to backup AVD Session Hosts</t>
+          <t>Review best practices and key considerations for storage sizing</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Backup can be used also to protect Host Pool VMs, this practice is supported, even if Host Pool VMs should be stateless. This option could be considered for Personal Host Pools. </t>
+          <t xml:space="preserve">As a general estimation, to be validated in a test environment, for each user 5 - 15 IOPS should be first considered, depending on the workload. Azure Files: Premium max 100k IOPS per share (max 100TB) and up to 5Gbps with 3ms latency. Be aware of how Azure Files is provisioned, that is IOPS strictly tied t'o provisioned SIZE. Burst sizing capability in some cases. Be sure to provision UPFRONT more space than required to be sure to have enough IOPS. NOTE: Azure Premium maybe cheaper than Standard because you don't pay transactions, then important detail to keep in mind.Azure NetApp Files: remember max 1000 IPs connected, can adjust IOPS on the fly, minimum 4TB provisioned capacity. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Assess which data need to be protected inside the Profile and Office Containers</t>
+          <t>Check best-practices for Azure Files (if used)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not all data inside FSLogix user profiles may deserve protection from disaster. Additionally, if external storage is used, for example OneDrive or File Servers/Shares, what is remaining in the FSLogix profile is minimal and could be lost in some extreme circumstances. In other cases, data inside the profile can be rebuilt from other storages (for example Outlook Inbox in cached mode). </t>
+          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Build a backup protection strategy for Profile and Office Containers</t>
+          <t>Check best-practices for NetApp Files (if used)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Preventing data loss for critical user data is important, first step is to assess which data need to be saved and protected. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary. Appropriate mechanism must be considered to provide protection for critical user data. Azure Backup service can be used to protect Profile and Office Containers data when stored on Azure Files Standard and Premium tiers. Azure NetApp Files Snapshots and Policies can be used for Azure NetApp Files (all tiers).</t>
+          <t>Make sure to check the list of best practices and recommendations described in the referenced article.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Assess Profile Container storage replication requirements and resiliency for BCDR purpose</t>
+          <t>Review and confirm configured maximum profile size in FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>In AVD, multiple replication mechanisms and strategies can be used for user data residing in FSLogix containers:? Profile Pattern #1: Native Azure storage replication mechanisms, for example Azure Files Standard GRS replication, Azure NetApp Files Cross Region Replication, or Azure Files Sync for VM-based file servers? Use Zone Replicated Storage (ZRS) or Geo replicated storage (GRS) for Azure Files is recommended.? LRS with local only resiliency can be used if no zone/region protection is required.? NOTE: Azure Files Share Standard is LRS/ZRS/GRS, but with 100TB large support enabled only LRS/ZRS are supported. ? Profile Pattern #2: FSLogix Cloud Cache is built in automatic mechanism to replicate containers between different (up to 4) storage accounts. Cloud Cache should be used only when:? User Profile or Office containers data availability required high-availability SLA is critical and need to be resilient to region failure.? Selected storage option is not able to satisfy BCDR requirements. For example, with Azure File Share Premium tier, or Azure File Share Standard with Large File Support enabled, GRS is not available.? When replication between disparate storage is required.? Profile Pattern #3: Only set up geo disaster recovery for application data and not for user data/profile containers: store important application data in separate storages, like OneDrive or other external storage with its own built-in DR mechanism.</t>
+          <t>Profile containers have a default max size of 30GB. If large Profile Containers are anticipated, and customers wants to try to keep them small, consider using OneDrive to host Office 365 files outside the FSLogix profile.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Review Azure NetApp Files DR strategy</t>
+          <t>If FSLogix Cloud Cache is used, move the Cache directory to temporary drive.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files is essentially is LRS (locally replicated storage), then you need to architect something more if you want cross-region replication. The recommendation for cross-region at the moment is NetApp Cloud Sync, replicating to another Azure region (and NetApp Volume). Backup: Backups are handled by snapshots, but are not automatic, need to scheduled using policies. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. There is a maximum limit of snapshots (255) per volume as documented here: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">Cloud Cache uses local disk as cache and may generate lot of pressure on the VM disk. Recommended to leverage the power of temporary (and locally attached) VM disk, if possible based on the VM SKU. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://learn.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Review Azure Files DR strategy</t>
+          <t>Review the usage of FSLogix redirection.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: GRS for Azure Files is only available with standard SKU and no large share support, then not suitable in most customer scenarios. If geo-replication is required, when using Azure File Share Premium, replication with FSLogix Cloud Cache should be evaluated, or 'in-region' Availability Zone (AZ) only resiliency should be considered. Backup: Azure Backup fully supports Azure File Share all SKUs, and is the recommended solution to protect Profile Containers. If using OneDrive or other external storage, saving user Profile and/or Office Containers data maybe not necessary.</t>
+          <t>REDIRECTION.XML file is used to control what folders are redirected out of the profile container to the C: drive. Exclusions should be the exception and should never be used unless the specific exclusion is completely understood by the person configuring the exclusion. Exclusions should always be fully tested in the environment where they are intended to be implemented. Configuring exclusions may impact functionality, stability and performance.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependencies</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Plan for Golden Image cross-region availability</t>
+          <t>If Azure NetApp Files storage is used, check AD Site name setting in the AD Connection.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>If custom images are used to deploy AVD Host Pool VMs, it is important to ensure those artifacts are available in all regions, even if in case of a major disaster. Azure Compute Gallery service can be used to replicate images across all regions where a Host Pool is deployed, with redundant storage and in multiple copies.</t>
+          <t>An Active Directory Site should be created for the Azure virtual network environment where ANF subnet will be created, and that site name should be specified in the ANF connection property when executing the join procedure as explained in the reference article.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependencies</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assess Infrastructure &amp; Application dependencies </t>
+          <t>Enable SMB multichannel when using a premium file share to host FSLogix profile containers.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>If users of the AVD infrastructure need on-premises resource access, high availability of network infrastructure required to connect is also critical and should be considered. Resiliency of authentication infrastructure needs to be assessed and evaluated. BCDR aspects for dependent applications and other resources need to be considered to ensure availability in the secondary DR location.</t>
+          <t>SMB Multichannel enables clients to use multiple network connections that provide increased performance while lowering the cost of ownership. Increased performance is achieved through bandwidth aggregation over multiple NICs and utilizing Receive Side Scaling (RSS) support for NICs to distribute the IO load across multiple CPUs.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,20 +6623,24 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Session Host </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determine which type of managed disk will be used for the Session Hosts  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard HDD, Standard SSD, or Premium SSD, Ephemeral disks are not supported, Ultra-Disks not recommended. Recommended to evaluate Premium for OS disk if user density is not low, and if you are going to use Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -6650,14 +6654,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
